--- a/Results/General_Statistics.xlsx
+++ b/Results/General_Statistics.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samoi\OneDrive\Desktop\Academic\PhD_Thesis\Perceptual Decisions\Exploring Brain Heterogeneity\EBH\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B094927F-4D1E-4268-B763-7665648B143A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055E113-3F51-45BB-A6EC-EA5979B23BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2D753E0C-FF93-4ACC-9C5D-0F5CCC088732}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{2D753E0C-FF93-4ACC-9C5D-0F5CCC088732}"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Figs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -439,6 +436,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,12 +467,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10546,16 +10543,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>391391</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>248516</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>464128</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>321253</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10775,15 +10772,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>136814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>166686</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>22514</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10847,5736 +10844,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SoGoSurvey_LifeJournal Blog_2"/>
-      <sheetName val="Personality key"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="BA1" t="str">
-            <v>Eavg</v>
-          </cell>
-          <cell r="BD1" t="str">
-            <v>Aavg</v>
-          </cell>
-          <cell r="BG1" t="str">
-            <v>Cavg</v>
-          </cell>
-          <cell r="BJ1" t="str">
-            <v>Navg</v>
-          </cell>
-          <cell r="BM1" t="str">
-            <v>Oavg</v>
-          </cell>
-          <cell r="BN1" t="str">
-            <v>Big_5</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>5/31/2020 17:00</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>5/31/2020 17:07</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E2">
-            <v>1</v>
-          </cell>
-          <cell r="F2">
-            <v>1</v>
-          </cell>
-          <cell r="G2">
-            <v>4</v>
-          </cell>
-          <cell r="H2">
-            <v>5</v>
-          </cell>
-          <cell r="I2">
-            <v>1</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-          <cell r="K2">
-            <v>1</v>
-          </cell>
-          <cell r="L2">
-            <v>1</v>
-          </cell>
-          <cell r="M2">
-            <v>1</v>
-          </cell>
-          <cell r="N2">
-            <v>1</v>
-          </cell>
-          <cell r="O2" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="Q2" t="str">
-            <v>Books</v>
-          </cell>
-          <cell r="R2" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="S2" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="T2" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="U2" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="V2" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="W2" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X2" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="Y2" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="Z2" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AA2" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="AB2">
-            <v>20</v>
-          </cell>
-          <cell r="AC2">
-            <v>0.5</v>
-          </cell>
-          <cell r="AD2" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE2">
-            <v>0.7</v>
-          </cell>
-          <cell r="AF2" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG2">
-            <v>2</v>
-          </cell>
-          <cell r="AH2">
-            <v>45</v>
-          </cell>
-          <cell r="AI2">
-            <v>20</v>
-          </cell>
-          <cell r="AJ2">
-            <v>8</v>
-          </cell>
-          <cell r="AK2" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL2">
-            <v>1</v>
-          </cell>
-          <cell r="AM2">
-            <v>15</v>
-          </cell>
-          <cell r="AN2">
-            <v>0.7</v>
-          </cell>
-          <cell r="AO2" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP2" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ2" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="AR2">
-            <v>3</v>
-          </cell>
-          <cell r="AS2">
-            <v>8</v>
-          </cell>
-          <cell r="AT2">
-            <v>27</v>
-          </cell>
-          <cell r="AU2" t="str">
-            <v>Rishon Le sion</v>
-          </cell>
-          <cell r="AV2" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW2" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX2" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY2">
-            <v>7</v>
-          </cell>
-          <cell r="BA2">
-            <v>7</v>
-          </cell>
-          <cell r="BD2">
-            <v>6</v>
-          </cell>
-          <cell r="BG2">
-            <v>5.5</v>
-          </cell>
-          <cell r="BJ2">
-            <v>3.5</v>
-          </cell>
-          <cell r="BM2">
-            <v>5.5</v>
-          </cell>
-          <cell r="BN2" t="str">
-            <v>E</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>3</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>5/31/2020 17:00</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>5/31/2020 17:09</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E3">
-            <v>1</v>
-          </cell>
-          <cell r="F3">
-            <v>1</v>
-          </cell>
-          <cell r="G3">
-            <v>4</v>
-          </cell>
-          <cell r="H3">
-            <v>2</v>
-          </cell>
-          <cell r="I3">
-            <v>2</v>
-          </cell>
-          <cell r="J3">
-            <v>1</v>
-          </cell>
-          <cell r="K3">
-            <v>1</v>
-          </cell>
-          <cell r="L3">
-            <v>1</v>
-          </cell>
-          <cell r="M3">
-            <v>1</v>
-          </cell>
-          <cell r="N3">
-            <v>1</v>
-          </cell>
-          <cell r="O3" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="Q3" t="str">
-            <v>Fantasy</v>
-          </cell>
-          <cell r="R3" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="S3" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="T3" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U3" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="V3" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="W3" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="X3" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="Y3" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="Z3" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="AA3" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AB3">
-            <v>10</v>
-          </cell>
-          <cell r="AC3">
-            <v>0.85</v>
-          </cell>
-          <cell r="AD3" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE3">
-            <v>0.7</v>
-          </cell>
-          <cell r="AF3" t="str">
-            <v>In to the screen (away from you)</v>
-          </cell>
-          <cell r="AG3">
-            <v>2</v>
-          </cell>
-          <cell r="AH3">
-            <v>80</v>
-          </cell>
-          <cell r="AI3">
-            <v>25</v>
-          </cell>
-          <cell r="AJ3">
-            <v>7</v>
-          </cell>
-          <cell r="AK3" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL3">
-            <v>1</v>
-          </cell>
-          <cell r="AM3">
-            <v>11</v>
-          </cell>
-          <cell r="AN3">
-            <v>0.77</v>
-          </cell>
-          <cell r="AO3" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP3" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ3" t="str">
-            <v>I don't know</v>
-          </cell>
-          <cell r="AR3">
-            <v>2</v>
-          </cell>
-          <cell r="AS3">
-            <v>5</v>
-          </cell>
-          <cell r="AT3">
-            <v>26</v>
-          </cell>
-          <cell r="AU3" t="str">
-            <v>Beer sheva</v>
-          </cell>
-          <cell r="AV3" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW3" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX3" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY3">
-            <v>6</v>
-          </cell>
-          <cell r="BA3">
-            <v>4.5</v>
-          </cell>
-          <cell r="BD3">
-            <v>5.5</v>
-          </cell>
-          <cell r="BG3">
-            <v>7</v>
-          </cell>
-          <cell r="BJ3">
-            <v>6.5</v>
-          </cell>
-          <cell r="BM3">
-            <v>6.5</v>
-          </cell>
-          <cell r="BN3" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>4</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>5/31/2020 17:07</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>5/31/2020 17:20</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E4">
-            <v>1</v>
-          </cell>
-          <cell r="F4">
-            <v>1</v>
-          </cell>
-          <cell r="G4">
-            <v>3</v>
-          </cell>
-          <cell r="H4">
-            <v>1</v>
-          </cell>
-          <cell r="I4">
-            <v>1</v>
-          </cell>
-          <cell r="J4">
-            <v>1</v>
-          </cell>
-          <cell r="K4">
-            <v>1</v>
-          </cell>
-          <cell r="L4">
-            <v>1</v>
-          </cell>
-          <cell r="M4">
-            <v>1</v>
-          </cell>
-          <cell r="N4">
-            <v>1</v>
-          </cell>
-          <cell r="O4" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="P4" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="Q4" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="R4" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="S4" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="T4" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="U4" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V4" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="W4" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X4" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y4" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Z4" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="AA4" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AB4">
-            <v>10</v>
-          </cell>
-          <cell r="AC4">
-            <v>0.8</v>
-          </cell>
-          <cell r="AD4" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE4">
-            <v>0.5</v>
-          </cell>
-          <cell r="AF4" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG4">
-            <v>2</v>
-          </cell>
-          <cell r="AH4">
-            <v>40</v>
-          </cell>
-          <cell r="AI4">
-            <v>12</v>
-          </cell>
-          <cell r="AJ4">
-            <v>8</v>
-          </cell>
-          <cell r="AK4" t="str">
-            <v>I don't see anyone</v>
-          </cell>
-          <cell r="AL4">
-            <v>0</v>
-          </cell>
-          <cell r="AM4">
-            <v>14</v>
-          </cell>
-          <cell r="AN4">
-            <v>0.3</v>
-          </cell>
-          <cell r="AO4" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP4" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ4" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="AR4">
-            <v>4</v>
-          </cell>
-          <cell r="AS4">
-            <v>3</v>
-          </cell>
-          <cell r="AT4">
-            <v>30</v>
-          </cell>
-          <cell r="AU4" t="str">
-            <v>Tel Aviv</v>
-          </cell>
-          <cell r="AV4" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW4" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX4" t="str">
-            <v>PC / Computer</v>
-          </cell>
-          <cell r="AY4">
-            <v>5</v>
-          </cell>
-          <cell r="BA4">
-            <v>5.5</v>
-          </cell>
-          <cell r="BD4">
-            <v>3</v>
-          </cell>
-          <cell r="BG4">
-            <v>5</v>
-          </cell>
-          <cell r="BJ4">
-            <v>2.5</v>
-          </cell>
-          <cell r="BM4">
-            <v>5.5</v>
-          </cell>
-          <cell r="BN4" t="str">
-            <v>E</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>5</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>5/31/2020 17:11</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>5/31/2020 17:21</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>1</v>
-          </cell>
-          <cell r="G5">
-            <v>3</v>
-          </cell>
-          <cell r="H5">
-            <v>1</v>
-          </cell>
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-          <cell r="J5">
-            <v>1</v>
-          </cell>
-          <cell r="K5">
-            <v>1</v>
-          </cell>
-          <cell r="L5">
-            <v>1</v>
-          </cell>
-          <cell r="M5">
-            <v>1</v>
-          </cell>
-          <cell r="N5">
-            <v>1</v>
-          </cell>
-          <cell r="O5" t="str">
-            <v>Sex</v>
-          </cell>
-          <cell r="P5" t="str">
-            <v>Movies</v>
-          </cell>
-          <cell r="Q5" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="R5" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="S5" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="T5" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U5" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V5" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="W5" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="X5" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y5" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="Z5" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AA5" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AB5">
-            <v>15</v>
-          </cell>
-          <cell r="AC5">
-            <v>0.5</v>
-          </cell>
-          <cell r="AD5" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE5">
-            <v>0.7</v>
-          </cell>
-          <cell r="AF5" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG5">
-            <v>2</v>
-          </cell>
-          <cell r="AH5">
-            <v>60</v>
-          </cell>
-          <cell r="AI5">
-            <v>30</v>
-          </cell>
-          <cell r="AJ5">
-            <v>7</v>
-          </cell>
-          <cell r="AK5" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL5">
-            <v>0.8</v>
-          </cell>
-          <cell r="AM5">
-            <v>11</v>
-          </cell>
-          <cell r="AN5">
-            <v>0.5</v>
-          </cell>
-          <cell r="AO5" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP5" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ5" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="AR5">
-            <v>2</v>
-          </cell>
-          <cell r="AS5">
-            <v>9</v>
-          </cell>
-          <cell r="AT5">
-            <v>52</v>
-          </cell>
-          <cell r="AU5" t="str">
-            <v>Omer</v>
-          </cell>
-          <cell r="AV5" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW5" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX5" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY5">
-            <v>5</v>
-          </cell>
-          <cell r="BA5">
-            <v>5.5</v>
-          </cell>
-          <cell r="BD5">
-            <v>6.5</v>
-          </cell>
-          <cell r="BG5">
-            <v>5.5</v>
-          </cell>
-          <cell r="BJ5">
-            <v>6</v>
-          </cell>
-          <cell r="BM5">
-            <v>6</v>
-          </cell>
-          <cell r="BN5" t="str">
-            <v>A</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>6</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>5/31/2020 17:14</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>5/31/2020 17:22</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-          <cell r="F6">
-            <v>3</v>
-          </cell>
-          <cell r="G6">
-            <v>5</v>
-          </cell>
-          <cell r="H6">
-            <v>5</v>
-          </cell>
-          <cell r="I6">
-            <v>1</v>
-          </cell>
-          <cell r="J6">
-            <v>1</v>
-          </cell>
-          <cell r="K6">
-            <v>1</v>
-          </cell>
-          <cell r="L6">
-            <v>1</v>
-          </cell>
-          <cell r="M6">
-            <v>1</v>
-          </cell>
-          <cell r="N6">
-            <v>3</v>
-          </cell>
-          <cell r="O6" t="str">
-            <v>Movies</v>
-          </cell>
-          <cell r="P6" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="Q6" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="R6" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="S6" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="T6" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="U6" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V6" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="W6" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="X6" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y6" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Z6" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="AA6" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="AB6">
-            <v>4</v>
-          </cell>
-          <cell r="AC6">
-            <v>0.7</v>
-          </cell>
-          <cell r="AD6" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE6">
-            <v>0.68</v>
-          </cell>
-          <cell r="AF6" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG6">
-            <v>1</v>
-          </cell>
-          <cell r="AH6">
-            <v>120</v>
-          </cell>
-          <cell r="AI6">
-            <v>29</v>
-          </cell>
-          <cell r="AJ6">
-            <v>4</v>
-          </cell>
-          <cell r="AK6" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL6">
-            <v>0.4</v>
-          </cell>
-          <cell r="AM6">
-            <v>3</v>
-          </cell>
-          <cell r="AN6">
-            <v>0.56000000000000005</v>
-          </cell>
-          <cell r="AO6" t="str">
-            <v>It doesn't describe me, it describes someone else</v>
-          </cell>
-          <cell r="AP6" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ6" t="str">
-            <v>I don't know</v>
-          </cell>
-          <cell r="AR6">
-            <v>5</v>
-          </cell>
-          <cell r="AS6">
-            <v>8</v>
-          </cell>
-          <cell r="AT6">
-            <v>29</v>
-          </cell>
-          <cell r="AU6" t="str">
-            <v>Tel aviv</v>
-          </cell>
-          <cell r="AV6" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW6" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX6" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY6">
-            <v>5</v>
-          </cell>
-          <cell r="BA6">
-            <v>4.5</v>
-          </cell>
-          <cell r="BD6">
-            <v>4.5</v>
-          </cell>
-          <cell r="BG6">
-            <v>6.5</v>
-          </cell>
-          <cell r="BJ6">
-            <v>4.5</v>
-          </cell>
-          <cell r="BM6">
-            <v>6</v>
-          </cell>
-          <cell r="BN6" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>7</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>5/31/2020 17:09</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>5/31/2020 17:25</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E7">
-            <v>1</v>
-          </cell>
-          <cell r="F7">
-            <v>1</v>
-          </cell>
-          <cell r="G7">
-            <v>4</v>
-          </cell>
-          <cell r="H7">
-            <v>5</v>
-          </cell>
-          <cell r="I7">
-            <v>1</v>
-          </cell>
-          <cell r="J7">
-            <v>1</v>
-          </cell>
-          <cell r="K7">
-            <v>1</v>
-          </cell>
-          <cell r="L7">
-            <v>1</v>
-          </cell>
-          <cell r="M7">
-            <v>1</v>
-          </cell>
-          <cell r="N7">
-            <v>1</v>
-          </cell>
-          <cell r="O7" t="str">
-            <v>Books</v>
-          </cell>
-          <cell r="P7" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="Q7" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="R7" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="S7" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="T7" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="U7" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="V7" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="W7" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="X7" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y7" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="Z7" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AA7" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AB7">
-            <v>12</v>
-          </cell>
-          <cell r="AC7">
-            <v>0.9</v>
-          </cell>
-          <cell r="AD7" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE7">
-            <v>0.85</v>
-          </cell>
-          <cell r="AF7" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG7">
-            <v>1</v>
-          </cell>
-          <cell r="AH7">
-            <v>40</v>
-          </cell>
-          <cell r="AI7">
-            <v>20</v>
-          </cell>
-          <cell r="AJ7">
-            <v>10</v>
-          </cell>
-          <cell r="AK7" t="str">
-            <v>I see a face</v>
-          </cell>
-          <cell r="AL7">
-            <v>1</v>
-          </cell>
-          <cell r="AM7">
-            <v>14</v>
-          </cell>
-          <cell r="AN7">
-            <v>0.9</v>
-          </cell>
-          <cell r="AO7" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP7" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ7" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="AR7">
-            <v>10</v>
-          </cell>
-          <cell r="AS7">
-            <v>9</v>
-          </cell>
-          <cell r="AT7">
-            <v>34</v>
-          </cell>
-          <cell r="AU7" t="str">
-            <v>Givataim</v>
-          </cell>
-          <cell r="AV7" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW7" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX7" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY7">
-            <v>6</v>
-          </cell>
-          <cell r="BA7">
-            <v>6</v>
-          </cell>
-          <cell r="BD7">
-            <v>5.5</v>
-          </cell>
-          <cell r="BG7">
-            <v>5.5</v>
-          </cell>
-          <cell r="BJ7">
-            <v>3</v>
-          </cell>
-          <cell r="BM7">
-            <v>6.5</v>
-          </cell>
-          <cell r="BN7" t="str">
-            <v>O</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>8</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>5/31/2020 17:21</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>5/31/2020 17:27</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E8">
-            <v>1</v>
-          </cell>
-          <cell r="F8">
-            <v>1</v>
-          </cell>
-          <cell r="G8">
-            <v>4</v>
-          </cell>
-          <cell r="H8">
-            <v>3</v>
-          </cell>
-          <cell r="I8">
-            <v>1</v>
-          </cell>
-          <cell r="J8">
-            <v>1</v>
-          </cell>
-          <cell r="K8">
-            <v>1</v>
-          </cell>
-          <cell r="L8">
-            <v>1</v>
-          </cell>
-          <cell r="M8">
-            <v>1</v>
-          </cell>
-          <cell r="N8">
-            <v>2</v>
-          </cell>
-          <cell r="O8" t="str">
-            <v>Literature</v>
-          </cell>
-          <cell r="P8" t="str">
-            <v>Cats</v>
-          </cell>
-          <cell r="Q8" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="R8" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="S8" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="T8" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="U8" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V8" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="W8" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="X8" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="Y8" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Z8" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AA8" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="AB8">
-            <v>7</v>
-          </cell>
-          <cell r="AC8">
-            <v>0.8</v>
-          </cell>
-          <cell r="AD8" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE8">
-            <v>0.6</v>
-          </cell>
-          <cell r="AF8" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG8">
-            <v>2</v>
-          </cell>
-          <cell r="AH8">
-            <v>60</v>
-          </cell>
-          <cell r="AI8">
-            <v>30</v>
-          </cell>
-          <cell r="AJ8">
-            <v>5</v>
-          </cell>
-          <cell r="AK8" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL8">
-            <v>1</v>
-          </cell>
-          <cell r="AM8">
-            <v>7</v>
-          </cell>
-          <cell r="AN8">
-            <v>0.8</v>
-          </cell>
-          <cell r="AO8" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP8" t="str">
-            <v>Anxiety</v>
-          </cell>
-          <cell r="AQ8" t="str">
-            <v>I don't know</v>
-          </cell>
-          <cell r="AR8">
-            <v>7</v>
-          </cell>
-          <cell r="AS8">
-            <v>6</v>
-          </cell>
-          <cell r="AT8">
-            <v>25</v>
-          </cell>
-          <cell r="AU8" t="str">
-            <v>Beer sheva</v>
-          </cell>
-          <cell r="AV8" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW8" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX8" t="str">
-            <v>PC / Computer</v>
-          </cell>
-          <cell r="AY8">
-            <v>5</v>
-          </cell>
-          <cell r="BA8">
-            <v>5</v>
-          </cell>
-          <cell r="BD8">
-            <v>4.5</v>
-          </cell>
-          <cell r="BG8">
-            <v>4</v>
-          </cell>
-          <cell r="BJ8">
-            <v>4</v>
-          </cell>
-          <cell r="BM8">
-            <v>5</v>
-          </cell>
-          <cell r="BN8" t="str">
-            <v>E</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>9</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>5/31/2020 17:27</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>5/31/2020 17:36</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E9">
-            <v>1</v>
-          </cell>
-          <cell r="F9">
-            <v>1</v>
-          </cell>
-          <cell r="G9">
-            <v>5</v>
-          </cell>
-          <cell r="H9">
-            <v>5</v>
-          </cell>
-          <cell r="I9">
-            <v>1</v>
-          </cell>
-          <cell r="J9">
-            <v>1</v>
-          </cell>
-          <cell r="K9">
-            <v>1</v>
-          </cell>
-          <cell r="L9">
-            <v>1</v>
-          </cell>
-          <cell r="M9">
-            <v>1</v>
-          </cell>
-          <cell r="N9">
-            <v>2</v>
-          </cell>
-          <cell r="O9" t="str">
-            <v>Books</v>
-          </cell>
-          <cell r="P9" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="Q9" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="R9" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="S9" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="T9" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U9" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V9" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="W9" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="X9" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y9" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="Z9" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AA9" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="AB9">
-            <v>10</v>
-          </cell>
-          <cell r="AC9">
-            <v>0.99</v>
-          </cell>
-          <cell r="AD9" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE9">
-            <v>0.8</v>
-          </cell>
-          <cell r="AF9" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG9">
-            <v>2</v>
-          </cell>
-          <cell r="AH9">
-            <v>100</v>
-          </cell>
-          <cell r="AI9">
-            <v>30</v>
-          </cell>
-          <cell r="AJ9">
-            <v>10</v>
-          </cell>
-          <cell r="AK9" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL9">
-            <v>0.99</v>
-          </cell>
-          <cell r="AM9">
-            <v>12</v>
-          </cell>
-          <cell r="AN9">
-            <v>0.9</v>
-          </cell>
-          <cell r="AO9" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP9" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ9" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="AR9">
-            <v>2</v>
-          </cell>
-          <cell r="AS9">
-            <v>7</v>
-          </cell>
-          <cell r="AT9">
-            <v>41</v>
-          </cell>
-          <cell r="AU9" t="str">
-            <v>Beer sheva</v>
-          </cell>
-          <cell r="AV9" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW9" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX9" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY9">
-            <v>5</v>
-          </cell>
-          <cell r="BA9">
-            <v>3.5</v>
-          </cell>
-          <cell r="BD9">
-            <v>6.5</v>
-          </cell>
-          <cell r="BG9">
-            <v>7</v>
-          </cell>
-          <cell r="BJ9">
-            <v>6</v>
-          </cell>
-          <cell r="BM9">
-            <v>6</v>
-          </cell>
-          <cell r="BN9" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>10</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>5/31/2020 17:28</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>5/31/2020 17:42</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E10">
-            <v>1</v>
-          </cell>
-          <cell r="F10">
-            <v>1</v>
-          </cell>
-          <cell r="G10">
-            <v>4</v>
-          </cell>
-          <cell r="H10">
-            <v>1</v>
-          </cell>
-          <cell r="I10">
-            <v>1</v>
-          </cell>
-          <cell r="J10">
-            <v>1</v>
-          </cell>
-          <cell r="K10">
-            <v>1</v>
-          </cell>
-          <cell r="L10">
-            <v>1</v>
-          </cell>
-          <cell r="M10">
-            <v>1</v>
-          </cell>
-          <cell r="O10" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="P10" t="str">
-            <v>Movies</v>
-          </cell>
-          <cell r="Q10" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="R10" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="S10" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="T10" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U10" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V10" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="W10" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X10" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y10" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z10" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AA10" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AB10">
-            <v>12</v>
-          </cell>
-          <cell r="AC10">
-            <v>0.7</v>
-          </cell>
-          <cell r="AD10" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE10">
-            <v>0.5</v>
-          </cell>
-          <cell r="AF10" t="str">
-            <v>In to the screen (away from you)</v>
-          </cell>
-          <cell r="AG10">
-            <v>2</v>
-          </cell>
-          <cell r="AH10">
-            <v>150</v>
-          </cell>
-          <cell r="AI10">
-            <v>30</v>
-          </cell>
-          <cell r="AJ10">
-            <v>8</v>
-          </cell>
-          <cell r="AK10" t="str">
-            <v>I don't see anyone</v>
-          </cell>
-          <cell r="AL10">
-            <v>0.3</v>
-          </cell>
-          <cell r="AM10">
-            <v>10</v>
-          </cell>
-          <cell r="AN10">
-            <v>0.5</v>
-          </cell>
-          <cell r="AO10" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP10" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ10" t="str">
-            <v>I don't know</v>
-          </cell>
-          <cell r="AR10">
-            <v>6</v>
-          </cell>
-          <cell r="AS10">
-            <v>6</v>
-          </cell>
-          <cell r="AT10">
-            <v>28</v>
-          </cell>
-          <cell r="AU10" t="str">
-            <v>Modiin</v>
-          </cell>
-          <cell r="AV10" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW10" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX10" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY10">
-            <v>5</v>
-          </cell>
-          <cell r="BA10">
-            <v>5.5</v>
-          </cell>
-          <cell r="BD10">
-            <v>6</v>
-          </cell>
-          <cell r="BG10">
-            <v>6</v>
-          </cell>
-          <cell r="BJ10">
-            <v>6</v>
-          </cell>
-          <cell r="BM10">
-            <v>5.5</v>
-          </cell>
-          <cell r="BN10" t="str">
-            <v>A</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>11</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>5/31/2020 17:40</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>5/31/2020 17:50</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E11">
-            <v>1</v>
-          </cell>
-          <cell r="F11">
-            <v>1</v>
-          </cell>
-          <cell r="G11">
-            <v>4</v>
-          </cell>
-          <cell r="H11">
-            <v>2</v>
-          </cell>
-          <cell r="I11">
-            <v>1</v>
-          </cell>
-          <cell r="J11">
-            <v>1</v>
-          </cell>
-          <cell r="K11">
-            <v>1</v>
-          </cell>
-          <cell r="L11">
-            <v>1</v>
-          </cell>
-          <cell r="M11">
-            <v>1</v>
-          </cell>
-          <cell r="N11">
-            <v>1</v>
-          </cell>
-          <cell r="O11" t="str">
-            <v>Sleep</v>
-          </cell>
-          <cell r="P11" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="Q11" t="str">
-            <v>Books</v>
-          </cell>
-          <cell r="R11" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="S11" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="T11" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="U11" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="V11" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="W11" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X11" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="Y11" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z11" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="AA11" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="AB11">
-            <v>15</v>
-          </cell>
-          <cell r="AC11">
-            <v>0.75</v>
-          </cell>
-          <cell r="AD11" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE11">
-            <v>0.85</v>
-          </cell>
-          <cell r="AF11" t="str">
-            <v>In to the screen (away from you)</v>
-          </cell>
-          <cell r="AG11">
-            <v>2</v>
-          </cell>
-          <cell r="AH11">
-            <v>100</v>
-          </cell>
-          <cell r="AI11">
-            <v>20</v>
-          </cell>
-          <cell r="AJ11">
-            <v>10</v>
-          </cell>
-          <cell r="AK11" t="str">
-            <v>I see a whole person</v>
-          </cell>
-          <cell r="AL11">
-            <v>0.7</v>
-          </cell>
-          <cell r="AM11">
-            <v>10</v>
-          </cell>
-          <cell r="AN11">
-            <v>0.85</v>
-          </cell>
-          <cell r="AO11" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP11" t="str">
-            <v>Anxiety</v>
-          </cell>
-          <cell r="AQ11" t="str">
-            <v>O</v>
-          </cell>
-          <cell r="AR11">
-            <v>2</v>
-          </cell>
-          <cell r="AS11">
-            <v>7</v>
-          </cell>
-          <cell r="AT11">
-            <v>41</v>
-          </cell>
-          <cell r="AU11" t="str">
-            <v>Meitar</v>
-          </cell>
-          <cell r="AV11" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW11" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX11" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY11">
-            <v>3</v>
-          </cell>
-          <cell r="BA11">
-            <v>2.5</v>
-          </cell>
-          <cell r="BD11">
-            <v>4.5</v>
-          </cell>
-          <cell r="BG11">
-            <v>5.5</v>
-          </cell>
-          <cell r="BJ11">
-            <v>3</v>
-          </cell>
-          <cell r="BM11">
-            <v>5.5</v>
-          </cell>
-          <cell r="BN11" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>12</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>5/31/2020 18:43</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>5/31/2020 18:52</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E12">
-            <v>1</v>
-          </cell>
-          <cell r="F12">
-            <v>1</v>
-          </cell>
-          <cell r="G12">
-            <v>4</v>
-          </cell>
-          <cell r="H12">
-            <v>5</v>
-          </cell>
-          <cell r="I12">
-            <v>1</v>
-          </cell>
-          <cell r="J12">
-            <v>2</v>
-          </cell>
-          <cell r="K12">
-            <v>1</v>
-          </cell>
-          <cell r="L12">
-            <v>1</v>
-          </cell>
-          <cell r="M12">
-            <v>1</v>
-          </cell>
-          <cell r="N12">
-            <v>4</v>
-          </cell>
-          <cell r="O12" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="P12" t="str">
-            <v>Movies</v>
-          </cell>
-          <cell r="Q12" t="str">
-            <v>Sex</v>
-          </cell>
-          <cell r="R12" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="S12" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="T12" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="U12" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V12" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="W12" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X12" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y12" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="Z12" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AA12" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="AB12">
-            <v>12</v>
-          </cell>
-          <cell r="AC12">
-            <v>0.7</v>
-          </cell>
-          <cell r="AD12" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE12">
-            <v>0.8</v>
-          </cell>
-          <cell r="AF12" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG12">
-            <v>1</v>
-          </cell>
-          <cell r="AH12">
-            <v>50</v>
-          </cell>
-          <cell r="AI12">
-            <v>15</v>
-          </cell>
-          <cell r="AJ12">
-            <v>10</v>
-          </cell>
-          <cell r="AK12" t="str">
-            <v>I see a face</v>
-          </cell>
-          <cell r="AL12">
-            <v>1</v>
-          </cell>
-          <cell r="AM12">
-            <v>16</v>
-          </cell>
-          <cell r="AN12">
-            <v>0.8</v>
-          </cell>
-          <cell r="AO12" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP12" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ12" t="str">
-            <v>I don't know</v>
-          </cell>
-          <cell r="AR12">
-            <v>1</v>
-          </cell>
-          <cell r="AS12">
-            <v>8</v>
-          </cell>
-          <cell r="AT12">
-            <v>28</v>
-          </cell>
-          <cell r="AU12" t="str">
-            <v>Berlin</v>
-          </cell>
-          <cell r="AV12" t="str">
-            <v>Germany</v>
-          </cell>
-          <cell r="AW12" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX12" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY12">
-            <v>5</v>
-          </cell>
-          <cell r="BA12">
-            <v>4.5</v>
-          </cell>
-          <cell r="BD12">
-            <v>6.5</v>
-          </cell>
-          <cell r="BG12">
-            <v>5</v>
-          </cell>
-          <cell r="BJ12">
-            <v>3.5</v>
-          </cell>
-          <cell r="BM12">
-            <v>5.5</v>
-          </cell>
-          <cell r="BN12" t="str">
-            <v>A</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>13</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>5/31/2020 19:15</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>5/31/2020 19:23</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E13">
-            <v>1</v>
-          </cell>
-          <cell r="F13">
-            <v>1</v>
-          </cell>
-          <cell r="G13">
-            <v>5</v>
-          </cell>
-          <cell r="H13">
-            <v>4</v>
-          </cell>
-          <cell r="I13">
-            <v>1</v>
-          </cell>
-          <cell r="J13">
-            <v>1</v>
-          </cell>
-          <cell r="K13">
-            <v>1</v>
-          </cell>
-          <cell r="L13">
-            <v>1</v>
-          </cell>
-          <cell r="M13">
-            <v>1</v>
-          </cell>
-          <cell r="N13">
-            <v>1</v>
-          </cell>
-          <cell r="O13" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="P13" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="Q13" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="R13" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="S13" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="T13" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="U13" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="V13" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="W13" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="X13" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y13" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z13" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AA13" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="AB13">
-            <v>13</v>
-          </cell>
-          <cell r="AC13">
-            <v>0.7</v>
-          </cell>
-          <cell r="AD13" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE13">
-            <v>0.9</v>
-          </cell>
-          <cell r="AF13" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG13">
-            <v>2</v>
-          </cell>
-          <cell r="AH13">
-            <v>70</v>
-          </cell>
-          <cell r="AI13">
-            <v>30</v>
-          </cell>
-          <cell r="AJ13">
-            <v>10</v>
-          </cell>
-          <cell r="AK13" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL13">
-            <v>1</v>
-          </cell>
-          <cell r="AM13">
-            <v>13</v>
-          </cell>
-          <cell r="AN13">
-            <v>0.7</v>
-          </cell>
-          <cell r="AO13" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP13" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ13" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="AR13">
-            <v>2</v>
-          </cell>
-          <cell r="AS13">
-            <v>2</v>
-          </cell>
-          <cell r="AT13">
-            <v>32</v>
-          </cell>
-          <cell r="AU13" t="str">
-            <v>Tel aviv</v>
-          </cell>
-          <cell r="AV13" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW13" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX13" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY13">
-            <v>1</v>
-          </cell>
-          <cell r="BA13">
-            <v>1</v>
-          </cell>
-          <cell r="BD13">
-            <v>4.5</v>
-          </cell>
-          <cell r="BG13">
-            <v>4</v>
-          </cell>
-          <cell r="BJ13">
-            <v>6.5</v>
-          </cell>
-          <cell r="BM13">
-            <v>6</v>
-          </cell>
-          <cell r="BN13" t="str">
-            <v>N</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>14</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>5/31/2020 19:35</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>5/31/2020 19:43</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E14">
-            <v>1</v>
-          </cell>
-          <cell r="F14">
-            <v>1</v>
-          </cell>
-          <cell r="G14">
-            <v>3</v>
-          </cell>
-          <cell r="H14">
-            <v>1</v>
-          </cell>
-          <cell r="I14">
-            <v>4</v>
-          </cell>
-          <cell r="J14">
-            <v>1</v>
-          </cell>
-          <cell r="K14">
-            <v>1</v>
-          </cell>
-          <cell r="L14">
-            <v>1</v>
-          </cell>
-          <cell r="M14">
-            <v>1</v>
-          </cell>
-          <cell r="N14">
-            <v>1</v>
-          </cell>
-          <cell r="O14" t="str">
-            <v>Sex</v>
-          </cell>
-          <cell r="P14" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="Q14" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="R14" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="S14" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="T14" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U14" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="V14" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="W14" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="X14" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y14" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z14" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AA14" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AB14">
-            <v>8</v>
-          </cell>
-          <cell r="AC14">
-            <v>0.9</v>
-          </cell>
-          <cell r="AD14" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE14">
-            <v>0.9</v>
-          </cell>
-          <cell r="AF14" t="str">
-            <v>In to the screen (away from you)</v>
-          </cell>
-          <cell r="AG14">
-            <v>2</v>
-          </cell>
-          <cell r="AH14">
-            <v>70</v>
-          </cell>
-          <cell r="AI14">
-            <v>20</v>
-          </cell>
-          <cell r="AJ14">
-            <v>7</v>
-          </cell>
-          <cell r="AK14" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL14">
-            <v>1</v>
-          </cell>
-          <cell r="AM14">
-            <v>9</v>
-          </cell>
-          <cell r="AN14">
-            <v>0.85</v>
-          </cell>
-          <cell r="AO14" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP14" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ14" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="AR14">
-            <v>1</v>
-          </cell>
-          <cell r="AS14">
-            <v>8</v>
-          </cell>
-          <cell r="AT14">
-            <v>28</v>
-          </cell>
-          <cell r="AU14" t="str">
-            <v>Ramat gan</v>
-          </cell>
-          <cell r="AV14" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW14" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX14" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY14">
-            <v>2</v>
-          </cell>
-          <cell r="BA14">
-            <v>2.5</v>
-          </cell>
-          <cell r="BD14">
-            <v>4</v>
-          </cell>
-          <cell r="BG14">
-            <v>6.5</v>
-          </cell>
-          <cell r="BJ14">
-            <v>4.5</v>
-          </cell>
-          <cell r="BM14">
-            <v>5.5</v>
-          </cell>
-          <cell r="BN14" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>15</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>5/31/2020 19:25</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>5/31/2020 19:43</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E15">
-            <v>1</v>
-          </cell>
-          <cell r="F15">
-            <v>1</v>
-          </cell>
-          <cell r="G15">
-            <v>5</v>
-          </cell>
-          <cell r="H15">
-            <v>3</v>
-          </cell>
-          <cell r="I15">
-            <v>1</v>
-          </cell>
-          <cell r="J15">
-            <v>1</v>
-          </cell>
-          <cell r="K15">
-            <v>1</v>
-          </cell>
-          <cell r="L15">
-            <v>1</v>
-          </cell>
-          <cell r="M15">
-            <v>1</v>
-          </cell>
-          <cell r="O15" t="str">
-            <v>Fantasy</v>
-          </cell>
-          <cell r="P15" t="str">
-            <v>Sex</v>
-          </cell>
-          <cell r="Q15" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="R15" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="S15" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="T15" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="U15" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="V15" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="W15" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X15" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y15" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Z15" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AA15" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AB15">
-            <v>13</v>
-          </cell>
-          <cell r="AC15">
-            <v>0.4</v>
-          </cell>
-          <cell r="AD15" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE15">
-            <v>0.6</v>
-          </cell>
-          <cell r="AF15" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG15">
-            <v>2</v>
-          </cell>
-          <cell r="AH15">
-            <v>95</v>
-          </cell>
-          <cell r="AI15">
-            <v>25</v>
-          </cell>
-          <cell r="AJ15">
-            <v>10</v>
-          </cell>
-          <cell r="AK15" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL15">
-            <v>0.9</v>
-          </cell>
-          <cell r="AM15">
-            <v>18</v>
-          </cell>
-          <cell r="AN15">
-            <v>0.4</v>
-          </cell>
-          <cell r="AO15" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP15" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ15" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="AR15">
-            <v>3</v>
-          </cell>
-          <cell r="AS15">
-            <v>4</v>
-          </cell>
-          <cell r="AT15">
-            <v>29</v>
-          </cell>
-          <cell r="AU15" t="str">
-            <v>Ramat Gan</v>
-          </cell>
-          <cell r="AV15" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW15" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX15" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY15">
-            <v>4</v>
-          </cell>
-          <cell r="BA15">
-            <v>5</v>
-          </cell>
-          <cell r="BD15">
-            <v>4</v>
-          </cell>
-          <cell r="BG15">
-            <v>6.5</v>
-          </cell>
-          <cell r="BJ15">
-            <v>4</v>
-          </cell>
-          <cell r="BM15">
-            <v>6.5</v>
-          </cell>
-          <cell r="BN15" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>16</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>5/31/2020 19:38</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>5/31/2020 19:48</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E16">
-            <v>1</v>
-          </cell>
-          <cell r="F16">
-            <v>1</v>
-          </cell>
-          <cell r="G16">
-            <v>3</v>
-          </cell>
-          <cell r="H16">
-            <v>1</v>
-          </cell>
-          <cell r="I16">
-            <v>1</v>
-          </cell>
-          <cell r="J16">
-            <v>1</v>
-          </cell>
-          <cell r="K16">
-            <v>1</v>
-          </cell>
-          <cell r="L16">
-            <v>1</v>
-          </cell>
-          <cell r="M16">
-            <v>1</v>
-          </cell>
-          <cell r="N16">
-            <v>1</v>
-          </cell>
-          <cell r="O16" t="str">
-            <v>Sex</v>
-          </cell>
-          <cell r="P16" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="Q16" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="R16" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="S16" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="T16" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U16" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="V16" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="W16" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X16" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="Y16" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Z16" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="AA16" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="AB16">
-            <v>18</v>
-          </cell>
-          <cell r="AC16">
-            <v>0.56999999999999995</v>
-          </cell>
-          <cell r="AD16" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE16">
-            <v>0.9</v>
-          </cell>
-          <cell r="AF16" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG16">
-            <v>2</v>
-          </cell>
-          <cell r="AH16">
-            <v>45</v>
-          </cell>
-          <cell r="AI16">
-            <v>45</v>
-          </cell>
-          <cell r="AJ16">
-            <v>18</v>
-          </cell>
-          <cell r="AK16" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL16">
-            <v>0.5</v>
-          </cell>
-          <cell r="AM16">
-            <v>24</v>
-          </cell>
-          <cell r="AN16">
-            <v>0.6</v>
-          </cell>
-          <cell r="AO16" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP16" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ16" t="str">
-            <v>O</v>
-          </cell>
-          <cell r="AR16">
-            <v>1</v>
-          </cell>
-          <cell r="AS16">
-            <v>2</v>
-          </cell>
-          <cell r="AT16">
-            <v>46</v>
-          </cell>
-          <cell r="AU16" t="str">
-            <v>Rehovot</v>
-          </cell>
-          <cell r="AV16" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW16" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX16" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY16">
-            <v>6</v>
-          </cell>
-          <cell r="BA16">
-            <v>4</v>
-          </cell>
-          <cell r="BD16">
-            <v>4</v>
-          </cell>
-          <cell r="BG16">
-            <v>6</v>
-          </cell>
-          <cell r="BJ16">
-            <v>4</v>
-          </cell>
-          <cell r="BM16">
-            <v>7</v>
-          </cell>
-          <cell r="BN16" t="str">
-            <v>O</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>17</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>5/31/2020 19:52</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>5/31/2020 20:03</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E17">
-            <v>1</v>
-          </cell>
-          <cell r="F17">
-            <v>1</v>
-          </cell>
-          <cell r="G17">
-            <v>3</v>
-          </cell>
-          <cell r="H17">
-            <v>4</v>
-          </cell>
-          <cell r="I17">
-            <v>1</v>
-          </cell>
-          <cell r="J17">
-            <v>1</v>
-          </cell>
-          <cell r="K17">
-            <v>1</v>
-          </cell>
-          <cell r="L17">
-            <v>1</v>
-          </cell>
-          <cell r="M17">
-            <v>1</v>
-          </cell>
-          <cell r="N17">
-            <v>1</v>
-          </cell>
-          <cell r="O17" t="str">
-            <v>Sex</v>
-          </cell>
-          <cell r="P17" t="str">
-            <v>Books</v>
-          </cell>
-          <cell r="Q17" t="str">
-            <v>Literature</v>
-          </cell>
-          <cell r="R17" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="S17" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="T17" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U17" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V17" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="W17" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X17" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="Y17" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Z17" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="AA17" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="AB17">
-            <v>15</v>
-          </cell>
-          <cell r="AC17">
-            <v>0.2</v>
-          </cell>
-          <cell r="AD17" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE17">
-            <v>0.5</v>
-          </cell>
-          <cell r="AF17" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG17">
-            <v>1</v>
-          </cell>
-          <cell r="AH17">
-            <v>105</v>
-          </cell>
-          <cell r="AI17">
-            <v>30</v>
-          </cell>
-          <cell r="AJ17">
-            <v>10</v>
-          </cell>
-          <cell r="AK17" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL17">
-            <v>0</v>
-          </cell>
-          <cell r="AM17">
-            <v>18</v>
-          </cell>
-          <cell r="AN17">
-            <v>0.15</v>
-          </cell>
-          <cell r="AO17" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP17" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ17" t="str">
-            <v>I don't know</v>
-          </cell>
-          <cell r="AR17">
-            <v>6</v>
-          </cell>
-          <cell r="AS17">
-            <v>7</v>
-          </cell>
-          <cell r="AT17">
-            <v>23</v>
-          </cell>
-          <cell r="AU17" t="str">
-            <v>Vienna</v>
-          </cell>
-          <cell r="AV17" t="str">
-            <v>Austria</v>
-          </cell>
-          <cell r="AW17" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX17" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY17">
-            <v>5</v>
-          </cell>
-          <cell r="BA17">
-            <v>4.5</v>
-          </cell>
-          <cell r="BD17">
-            <v>5</v>
-          </cell>
-          <cell r="BG17">
-            <v>6</v>
-          </cell>
-          <cell r="BJ17">
-            <v>5.5</v>
-          </cell>
-          <cell r="BM17">
-            <v>5</v>
-          </cell>
-          <cell r="BN17" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>18</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>5/31/2020 20:39</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>5/31/2020 20:50</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E18">
-            <v>1</v>
-          </cell>
-          <cell r="F18">
-            <v>1</v>
-          </cell>
-          <cell r="G18">
-            <v>5</v>
-          </cell>
-          <cell r="H18">
-            <v>5</v>
-          </cell>
-          <cell r="I18">
-            <v>2</v>
-          </cell>
-          <cell r="J18">
-            <v>1</v>
-          </cell>
-          <cell r="K18">
-            <v>1</v>
-          </cell>
-          <cell r="L18">
-            <v>1</v>
-          </cell>
-          <cell r="M18">
-            <v>1</v>
-          </cell>
-          <cell r="N18">
-            <v>1</v>
-          </cell>
-          <cell r="O18" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="P18" t="str">
-            <v>Sleep</v>
-          </cell>
-          <cell r="Q18" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="R18" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="S18" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="T18" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U18" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V18" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="W18" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X18" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="Y18" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Z18" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AA18" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AB18">
-            <v>20</v>
-          </cell>
-          <cell r="AC18">
-            <v>0.75</v>
-          </cell>
-          <cell r="AD18" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE18">
-            <v>0.6</v>
-          </cell>
-          <cell r="AF18" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG18">
-            <v>2</v>
-          </cell>
-          <cell r="AH18">
-            <v>80</v>
-          </cell>
-          <cell r="AI18">
-            <v>30</v>
-          </cell>
-          <cell r="AJ18">
-            <v>10</v>
-          </cell>
-          <cell r="AK18" t="str">
-            <v>I don't see anyone</v>
-          </cell>
-          <cell r="AL18">
-            <v>0.5</v>
-          </cell>
-          <cell r="AM18">
-            <v>40</v>
-          </cell>
-          <cell r="AN18">
-            <v>0.5</v>
-          </cell>
-          <cell r="AO18" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP18" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ18" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="AR18">
-            <v>9</v>
-          </cell>
-          <cell r="AS18">
-            <v>9</v>
-          </cell>
-          <cell r="AT18">
-            <v>30</v>
-          </cell>
-          <cell r="AU18" t="str">
-            <v>Ramat gan</v>
-          </cell>
-          <cell r="AV18" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW18" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX18" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY18">
-            <v>5</v>
-          </cell>
-          <cell r="BA18">
-            <v>4</v>
-          </cell>
-          <cell r="BD18">
-            <v>4.5</v>
-          </cell>
-          <cell r="BG18">
-            <v>5</v>
-          </cell>
-          <cell r="BJ18">
-            <v>4.5</v>
-          </cell>
-          <cell r="BM18">
-            <v>5.5</v>
-          </cell>
-          <cell r="BN18" t="str">
-            <v>O</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>19</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>5/31/2020 20:36</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>5/31/2020 20:50</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E19">
-            <v>1</v>
-          </cell>
-          <cell r="F19">
-            <v>1</v>
-          </cell>
-          <cell r="G19">
-            <v>2</v>
-          </cell>
-          <cell r="H19">
-            <v>4</v>
-          </cell>
-          <cell r="I19">
-            <v>1</v>
-          </cell>
-          <cell r="J19">
-            <v>1</v>
-          </cell>
-          <cell r="K19">
-            <v>1</v>
-          </cell>
-          <cell r="L19">
-            <v>1</v>
-          </cell>
-          <cell r="M19">
-            <v>1</v>
-          </cell>
-          <cell r="O19" t="str">
-            <v>Books</v>
-          </cell>
-          <cell r="P19" t="str">
-            <v>Movies</v>
-          </cell>
-          <cell r="Q19" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="R19" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="S19" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="T19" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U19" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="V19" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="W19" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="X19" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="Y19" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="Z19" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AA19" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AB19">
-            <v>10</v>
-          </cell>
-          <cell r="AC19">
-            <v>0.8</v>
-          </cell>
-          <cell r="AD19" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE19">
-            <v>0.5</v>
-          </cell>
-          <cell r="AF19" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG19">
-            <v>2</v>
-          </cell>
-          <cell r="AH19">
-            <v>150</v>
-          </cell>
-          <cell r="AI19">
-            <v>25</v>
-          </cell>
-          <cell r="AJ19">
-            <v>10</v>
-          </cell>
-          <cell r="AK19" t="str">
-            <v>I don't see anyone</v>
-          </cell>
-          <cell r="AL19">
-            <v>0.5</v>
-          </cell>
-          <cell r="AM19">
-            <v>15</v>
-          </cell>
-          <cell r="AN19">
-            <v>0.4</v>
-          </cell>
-          <cell r="AO19" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP19" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ19" t="str">
-            <v>O</v>
-          </cell>
-          <cell r="AR19">
-            <v>10</v>
-          </cell>
-          <cell r="AS19">
-            <v>2</v>
-          </cell>
-          <cell r="AT19">
-            <v>26</v>
-          </cell>
-          <cell r="AU19" t="str">
-            <v>Jerusalem</v>
-          </cell>
-          <cell r="AV19" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW19" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX19" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY19">
-            <v>7</v>
-          </cell>
-          <cell r="BA19">
-            <v>6.5</v>
-          </cell>
-          <cell r="BD19">
-            <v>6.5</v>
-          </cell>
-          <cell r="BG19">
-            <v>7</v>
-          </cell>
-          <cell r="BJ19">
-            <v>4.5</v>
-          </cell>
-          <cell r="BM19">
-            <v>7</v>
-          </cell>
-          <cell r="BN19" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>20</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>5/31/2020 20:36</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>5/31/2020 20:57</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E20">
-            <v>1</v>
-          </cell>
-          <cell r="F20">
-            <v>1</v>
-          </cell>
-          <cell r="G20">
-            <v>2</v>
-          </cell>
-          <cell r="H20">
-            <v>4</v>
-          </cell>
-          <cell r="I20">
-            <v>4</v>
-          </cell>
-          <cell r="J20">
-            <v>1</v>
-          </cell>
-          <cell r="K20">
-            <v>1</v>
-          </cell>
-          <cell r="L20">
-            <v>1</v>
-          </cell>
-          <cell r="M20">
-            <v>1</v>
-          </cell>
-          <cell r="N20">
-            <v>1</v>
-          </cell>
-          <cell r="O20" t="str">
-            <v>Sex</v>
-          </cell>
-          <cell r="P20" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="Q20" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="R20" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="S20" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="T20" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="U20" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V20" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="W20" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="X20" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y20" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z20" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="AA20" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AB20">
-            <v>10</v>
-          </cell>
-          <cell r="AC20">
-            <v>0.8</v>
-          </cell>
-          <cell r="AD20" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE20">
-            <v>0.56999999999999995</v>
-          </cell>
-          <cell r="AF20" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG20">
-            <v>2</v>
-          </cell>
-          <cell r="AH20">
-            <v>50</v>
-          </cell>
-          <cell r="AI20">
-            <v>22</v>
-          </cell>
-          <cell r="AJ20">
-            <v>7</v>
-          </cell>
-          <cell r="AK20" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL20">
-            <v>1</v>
-          </cell>
-          <cell r="AM20">
-            <v>11</v>
-          </cell>
-          <cell r="AN20">
-            <v>0.79</v>
-          </cell>
-          <cell r="AO20" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP20" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ20" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="AR20">
-            <v>2</v>
-          </cell>
-          <cell r="AS20">
-            <v>8</v>
-          </cell>
-          <cell r="AT20">
-            <v>26</v>
-          </cell>
-          <cell r="AU20" t="str">
-            <v>Holon</v>
-          </cell>
-          <cell r="AV20" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW20" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX20" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY20">
-            <v>5</v>
-          </cell>
-          <cell r="BA20">
-            <v>4</v>
-          </cell>
-          <cell r="BD20">
-            <v>4.5</v>
-          </cell>
-          <cell r="BG20">
-            <v>5.5</v>
-          </cell>
-          <cell r="BJ20">
-            <v>7</v>
-          </cell>
-          <cell r="BM20">
-            <v>6</v>
-          </cell>
-          <cell r="BN20" t="str">
-            <v>N</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>21</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>5/31/2020 21:29</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>5/31/2020 21:32</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E21">
-            <v>1</v>
-          </cell>
-          <cell r="F21">
-            <v>1</v>
-          </cell>
-          <cell r="G21">
-            <v>3</v>
-          </cell>
-          <cell r="H21">
-            <v>4</v>
-          </cell>
-          <cell r="I21">
-            <v>5</v>
-          </cell>
-          <cell r="J21">
-            <v>1</v>
-          </cell>
-          <cell r="K21">
-            <v>1</v>
-          </cell>
-          <cell r="L21">
-            <v>1</v>
-          </cell>
-          <cell r="M21">
-            <v>1</v>
-          </cell>
-          <cell r="N21">
-            <v>1</v>
-          </cell>
-          <cell r="O21" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="P21" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="Q21" t="str">
-            <v>Sleep</v>
-          </cell>
-          <cell r="R21" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="S21" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="T21" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="U21" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="V21" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="W21" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="X21" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="Y21" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Z21" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="AA21" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="AB21">
-            <v>8</v>
-          </cell>
-          <cell r="AC21">
-            <v>0.85</v>
-          </cell>
-          <cell r="AD21" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE21">
-            <v>0.85</v>
-          </cell>
-          <cell r="AF21" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG21">
-            <v>2</v>
-          </cell>
-          <cell r="AH21">
-            <v>28</v>
-          </cell>
-          <cell r="AI21">
-            <v>13</v>
-          </cell>
-          <cell r="AJ21">
-            <v>7</v>
-          </cell>
-          <cell r="AK21" t="str">
-            <v>I see a face</v>
-          </cell>
-          <cell r="AL21">
-            <v>0.85</v>
-          </cell>
-          <cell r="AM21">
-            <v>10</v>
-          </cell>
-          <cell r="AN21">
-            <v>0.85</v>
-          </cell>
-          <cell r="AO21" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP21" t="str">
-            <v>Other</v>
-          </cell>
-          <cell r="AQ21" t="str">
-            <v>O</v>
-          </cell>
-          <cell r="AR21">
-            <v>2</v>
-          </cell>
-          <cell r="AS21">
-            <v>2</v>
-          </cell>
-          <cell r="AT21">
-            <v>26</v>
-          </cell>
-          <cell r="AU21" t="str">
-            <v>Tel Aviv</v>
-          </cell>
-          <cell r="AV21" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW21" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX21" t="str">
-            <v>PC / Computer</v>
-          </cell>
-          <cell r="AY21">
-            <v>3</v>
-          </cell>
-          <cell r="BA21">
-            <v>2.5</v>
-          </cell>
-          <cell r="BD21">
-            <v>5.5</v>
-          </cell>
-          <cell r="BG21">
-            <v>7</v>
-          </cell>
-          <cell r="BJ21">
-            <v>5</v>
-          </cell>
-          <cell r="BM21">
-            <v>4</v>
-          </cell>
-          <cell r="BN21" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>22</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>5/31/2020 21:26</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>5/31/2020 21:35</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E22">
-            <v>1</v>
-          </cell>
-          <cell r="F22">
-            <v>1</v>
-          </cell>
-          <cell r="G22">
-            <v>3</v>
-          </cell>
-          <cell r="H22">
-            <v>4</v>
-          </cell>
-          <cell r="I22">
-            <v>1</v>
-          </cell>
-          <cell r="J22">
-            <v>1</v>
-          </cell>
-          <cell r="K22">
-            <v>1</v>
-          </cell>
-          <cell r="L22">
-            <v>1</v>
-          </cell>
-          <cell r="M22">
-            <v>1</v>
-          </cell>
-          <cell r="N22">
-            <v>1</v>
-          </cell>
-          <cell r="O22" t="str">
-            <v>Movies</v>
-          </cell>
-          <cell r="P22" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="Q22" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="R22" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="S22" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="T22" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U22" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="V22" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="W22" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="X22" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="Y22" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z22" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AA22" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AB22">
-            <v>1</v>
-          </cell>
-          <cell r="AC22">
-            <v>0.8</v>
-          </cell>
-          <cell r="AD22" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE22">
-            <v>0.6</v>
-          </cell>
-          <cell r="AF22" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG22">
-            <v>1</v>
-          </cell>
-          <cell r="AH22">
-            <v>65</v>
-          </cell>
-          <cell r="AI22">
-            <v>17</v>
-          </cell>
-          <cell r="AJ22">
-            <v>6</v>
-          </cell>
-          <cell r="AK22" t="str">
-            <v>I don't see anyone</v>
-          </cell>
-          <cell r="AL22">
-            <v>0.7</v>
-          </cell>
-          <cell r="AM22">
-            <v>9</v>
-          </cell>
-          <cell r="AN22">
-            <v>0.7</v>
-          </cell>
-          <cell r="AO22" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP22" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ22" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="AR22">
-            <v>6</v>
-          </cell>
-          <cell r="AS22">
-            <v>8</v>
-          </cell>
-          <cell r="AT22">
-            <v>22</v>
-          </cell>
-          <cell r="AU22" t="str">
-            <v>ashdod</v>
-          </cell>
-          <cell r="AV22" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW22" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX22" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY22">
-            <v>6</v>
-          </cell>
-          <cell r="BA22">
-            <v>4.5</v>
-          </cell>
-          <cell r="BD22">
-            <v>5</v>
-          </cell>
-          <cell r="BG22">
-            <v>5</v>
-          </cell>
-          <cell r="BJ22">
-            <v>4.5</v>
-          </cell>
-          <cell r="BM22">
-            <v>3.5</v>
-          </cell>
-          <cell r="BN22" t="str">
-            <v>A</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>23</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>5/31/2020 22:07</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>5/31/2020 22:17</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E23">
-            <v>1</v>
-          </cell>
-          <cell r="F23">
-            <v>1</v>
-          </cell>
-          <cell r="G23">
-            <v>5</v>
-          </cell>
-          <cell r="H23">
-            <v>5</v>
-          </cell>
-          <cell r="I23">
-            <v>1</v>
-          </cell>
-          <cell r="J23">
-            <v>1</v>
-          </cell>
-          <cell r="K23">
-            <v>1</v>
-          </cell>
-          <cell r="L23">
-            <v>1</v>
-          </cell>
-          <cell r="M23">
-            <v>1</v>
-          </cell>
-          <cell r="N23">
-            <v>1</v>
-          </cell>
-          <cell r="O23" t="str">
-            <v>Cats</v>
-          </cell>
-          <cell r="P23" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="Q23" t="str">
-            <v>Movies</v>
-          </cell>
-          <cell r="R23" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="S23" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="T23" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="U23" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="V23" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="W23" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="X23" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Y23" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z23" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="AA23" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="AB23">
-            <v>11</v>
-          </cell>
-          <cell r="AC23">
-            <v>0.7</v>
-          </cell>
-          <cell r="AD23" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE23">
-            <v>0.8</v>
-          </cell>
-          <cell r="AF23" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG23">
-            <v>2</v>
-          </cell>
-          <cell r="AH23">
-            <v>38</v>
-          </cell>
-          <cell r="AI23">
-            <v>23</v>
-          </cell>
-          <cell r="AJ23">
-            <v>6</v>
-          </cell>
-          <cell r="AK23" t="str">
-            <v>I see a whole person</v>
-          </cell>
-          <cell r="AL23">
-            <v>1</v>
-          </cell>
-          <cell r="AM23">
-            <v>9</v>
-          </cell>
-          <cell r="AN23">
-            <v>0.7</v>
-          </cell>
-          <cell r="AO23" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP23" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ23" t="str">
-            <v>I don't know</v>
-          </cell>
-          <cell r="AR23">
-            <v>2</v>
-          </cell>
-          <cell r="AS23">
-            <v>3</v>
-          </cell>
-          <cell r="AT23">
-            <v>24</v>
-          </cell>
-          <cell r="AU23" t="str">
-            <v>Tel aviv</v>
-          </cell>
-          <cell r="AV23" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW23" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX23" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY23">
-            <v>4</v>
-          </cell>
-          <cell r="BA23">
-            <v>3</v>
-          </cell>
-          <cell r="BD23">
-            <v>5.5</v>
-          </cell>
-          <cell r="BG23">
-            <v>6</v>
-          </cell>
-          <cell r="BJ23">
-            <v>5</v>
-          </cell>
-          <cell r="BM23">
-            <v>3.5</v>
-          </cell>
-          <cell r="BN23" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>24</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>5/31/2020 22:43</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>5/31/2020 22:53</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E24">
-            <v>1</v>
-          </cell>
-          <cell r="F24">
-            <v>1</v>
-          </cell>
-          <cell r="G24">
-            <v>5</v>
-          </cell>
-          <cell r="H24">
-            <v>3</v>
-          </cell>
-          <cell r="I24">
-            <v>1</v>
-          </cell>
-          <cell r="J24">
-            <v>1</v>
-          </cell>
-          <cell r="K24">
-            <v>1</v>
-          </cell>
-          <cell r="L24">
-            <v>1</v>
-          </cell>
-          <cell r="M24">
-            <v>1</v>
-          </cell>
-          <cell r="N24">
-            <v>1</v>
-          </cell>
-          <cell r="O24" t="str">
-            <v>Movies</v>
-          </cell>
-          <cell r="P24" t="str">
-            <v>Sex</v>
-          </cell>
-          <cell r="Q24" t="str">
-            <v>Sleep</v>
-          </cell>
-          <cell r="R24" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="S24" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="T24" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U24" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V24" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="W24" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="X24" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="Y24" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="Z24" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="AA24" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="AB24">
-            <v>11</v>
-          </cell>
-          <cell r="AC24">
-            <v>0.7</v>
-          </cell>
-          <cell r="AD24" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE24">
-            <v>0.6</v>
-          </cell>
-          <cell r="AF24" t="str">
-            <v>In to the screen (away from you)</v>
-          </cell>
-          <cell r="AG24">
-            <v>1</v>
-          </cell>
-          <cell r="AH24">
-            <v>45</v>
-          </cell>
-          <cell r="AI24">
-            <v>25</v>
-          </cell>
-          <cell r="AJ24">
-            <v>8</v>
-          </cell>
-          <cell r="AK24" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL24">
-            <v>1</v>
-          </cell>
-          <cell r="AM24">
-            <v>22</v>
-          </cell>
-          <cell r="AN24">
-            <v>0.5</v>
-          </cell>
-          <cell r="AO24" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP24" t="str">
-            <v>Depression</v>
-          </cell>
-          <cell r="AQ24" t="str">
-            <v>O</v>
-          </cell>
-          <cell r="AR24">
-            <v>1</v>
-          </cell>
-          <cell r="AS24">
-            <v>2</v>
-          </cell>
-          <cell r="AT24">
-            <v>28</v>
-          </cell>
-          <cell r="AU24" t="str">
-            <v>Tel aviv</v>
-          </cell>
-          <cell r="AV24" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW24" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX24" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY24">
-            <v>5</v>
-          </cell>
-          <cell r="BA24">
-            <v>3.5</v>
-          </cell>
-          <cell r="BD24">
-            <v>6.5</v>
-          </cell>
-          <cell r="BG24">
-            <v>4</v>
-          </cell>
-          <cell r="BJ24">
-            <v>5</v>
-          </cell>
-          <cell r="BM24">
-            <v>5</v>
-          </cell>
-          <cell r="BN24" t="str">
-            <v>A</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>25</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>5/31/2020 23:40</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>5/31/2020 23:48</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E25">
-            <v>1</v>
-          </cell>
-          <cell r="F25">
-            <v>1</v>
-          </cell>
-          <cell r="G25">
-            <v>3</v>
-          </cell>
-          <cell r="H25">
-            <v>4</v>
-          </cell>
-          <cell r="I25">
-            <v>2</v>
-          </cell>
-          <cell r="J25">
-            <v>1</v>
-          </cell>
-          <cell r="K25">
-            <v>1</v>
-          </cell>
-          <cell r="L25">
-            <v>1</v>
-          </cell>
-          <cell r="M25">
-            <v>1</v>
-          </cell>
-          <cell r="N25">
-            <v>1</v>
-          </cell>
-          <cell r="O25" t="str">
-            <v>Literature</v>
-          </cell>
-          <cell r="P25" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="Q25" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="R25" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="S25" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="T25" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="U25" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V25" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="W25" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="X25" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Y25" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z25" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AA25" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="AB25">
-            <v>20</v>
-          </cell>
-          <cell r="AC25">
-            <v>0.8</v>
-          </cell>
-          <cell r="AD25" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE25">
-            <v>0.95</v>
-          </cell>
-          <cell r="AF25" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG25">
-            <v>2</v>
-          </cell>
-          <cell r="AH25">
-            <v>100</v>
-          </cell>
-          <cell r="AI25">
-            <v>20</v>
-          </cell>
-          <cell r="AJ25">
-            <v>12</v>
-          </cell>
-          <cell r="AK25" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL25">
-            <v>1</v>
-          </cell>
-          <cell r="AM25">
-            <v>25</v>
-          </cell>
-          <cell r="AN25">
-            <v>0.8</v>
-          </cell>
-          <cell r="AO25" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP25" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ25" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="AR25">
-            <v>3</v>
-          </cell>
-          <cell r="AS25">
-            <v>7</v>
-          </cell>
-          <cell r="AT25">
-            <v>28</v>
-          </cell>
-          <cell r="AU25" t="str">
-            <v>Beer sheva</v>
-          </cell>
-          <cell r="AV25" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW25" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX25" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY25">
-            <v>5</v>
-          </cell>
-          <cell r="BA25">
-            <v>5</v>
-          </cell>
-          <cell r="BD25">
-            <v>5</v>
-          </cell>
-          <cell r="BG25">
-            <v>3.5</v>
-          </cell>
-          <cell r="BJ25">
-            <v>6.5</v>
-          </cell>
-          <cell r="BM25">
-            <v>3</v>
-          </cell>
-          <cell r="BN25" t="str">
-            <v>N</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>26</v>
-          </cell>
-          <cell r="B26">
-            <v>43836.090277777781</v>
-          </cell>
-          <cell r="C26">
-            <v>43836.098611111112</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E26">
-            <v>1</v>
-          </cell>
-          <cell r="F26">
-            <v>1</v>
-          </cell>
-          <cell r="G26">
-            <v>5</v>
-          </cell>
-          <cell r="H26">
-            <v>1</v>
-          </cell>
-          <cell r="I26">
-            <v>2</v>
-          </cell>
-          <cell r="J26">
-            <v>1</v>
-          </cell>
-          <cell r="K26">
-            <v>1</v>
-          </cell>
-          <cell r="L26">
-            <v>1</v>
-          </cell>
-          <cell r="M26">
-            <v>1</v>
-          </cell>
-          <cell r="N26">
-            <v>1</v>
-          </cell>
-          <cell r="O26" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="P26" t="str">
-            <v>Literature</v>
-          </cell>
-          <cell r="Q26" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="R26" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="S26" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="T26" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="U26" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="V26" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="W26" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="X26" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y26" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Z26" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="AA26" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="AB26">
-            <v>13</v>
-          </cell>
-          <cell r="AC26">
-            <v>0.4</v>
-          </cell>
-          <cell r="AD26" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE26">
-            <v>0.65</v>
-          </cell>
-          <cell r="AF26" t="str">
-            <v>In to the screen (away from you)</v>
-          </cell>
-          <cell r="AG26">
-            <v>1</v>
-          </cell>
-          <cell r="AH26">
-            <v>100</v>
-          </cell>
-          <cell r="AI26">
-            <v>33</v>
-          </cell>
-          <cell r="AJ26">
-            <v>8</v>
-          </cell>
-          <cell r="AK26" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL26">
-            <v>1</v>
-          </cell>
-          <cell r="AM26">
-            <v>13</v>
-          </cell>
-          <cell r="AN26">
-            <v>0.65</v>
-          </cell>
-          <cell r="AO26" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP26" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ26" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="AR26">
-            <v>2</v>
-          </cell>
-          <cell r="AS26">
-            <v>10</v>
-          </cell>
-          <cell r="AT26">
-            <v>28</v>
-          </cell>
-          <cell r="AU26" t="str">
-            <v>Tel Aviv</v>
-          </cell>
-          <cell r="AV26" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW26" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX26" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY26">
-            <v>3</v>
-          </cell>
-          <cell r="BA26">
-            <v>3.5</v>
-          </cell>
-          <cell r="BD26">
-            <v>4.5</v>
-          </cell>
-          <cell r="BG26">
-            <v>6</v>
-          </cell>
-          <cell r="BJ26">
-            <v>5</v>
-          </cell>
-          <cell r="BM26">
-            <v>5</v>
-          </cell>
-          <cell r="BN26" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>27</v>
-          </cell>
-          <cell r="B27">
-            <v>43836.902777777781</v>
-          </cell>
-          <cell r="C27">
-            <v>43836.908333333333</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E27">
-            <v>1</v>
-          </cell>
-          <cell r="F27">
-            <v>1</v>
-          </cell>
-          <cell r="G27">
-            <v>5</v>
-          </cell>
-          <cell r="H27">
-            <v>5</v>
-          </cell>
-          <cell r="I27">
-            <v>1</v>
-          </cell>
-          <cell r="J27">
-            <v>1</v>
-          </cell>
-          <cell r="K27">
-            <v>1</v>
-          </cell>
-          <cell r="L27">
-            <v>1</v>
-          </cell>
-          <cell r="M27">
-            <v>1</v>
-          </cell>
-          <cell r="N27">
-            <v>1</v>
-          </cell>
-          <cell r="O27" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="P27" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="Q27" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="R27" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="S27" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="T27" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="U27" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="V27" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="W27" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="X27" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="Y27" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Z27" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="AA27" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="AB27">
-            <v>15</v>
-          </cell>
-          <cell r="AC27">
-            <v>0.9</v>
-          </cell>
-          <cell r="AD27" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE27">
-            <v>0.6</v>
-          </cell>
-          <cell r="AF27" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG27">
-            <v>2</v>
-          </cell>
-          <cell r="AH27">
-            <v>87</v>
-          </cell>
-          <cell r="AI27">
-            <v>40</v>
-          </cell>
-          <cell r="AJ27">
-            <v>11</v>
-          </cell>
-          <cell r="AK27" t="str">
-            <v>I see a whole person</v>
-          </cell>
-          <cell r="AL27">
-            <v>1</v>
-          </cell>
-          <cell r="AM27">
-            <v>20</v>
-          </cell>
-          <cell r="AN27">
-            <v>0.8</v>
-          </cell>
-          <cell r="AO27" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP27" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ27" t="str">
-            <v>I don't know</v>
-          </cell>
-          <cell r="AR27">
-            <v>2</v>
-          </cell>
-          <cell r="AS27">
-            <v>2</v>
-          </cell>
-          <cell r="AT27">
-            <v>28</v>
-          </cell>
-          <cell r="AU27" t="str">
-            <v>Tel Aviv</v>
-          </cell>
-          <cell r="AV27" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW27" t="str">
-            <v>Female</v>
-          </cell>
-          <cell r="AX27" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY27">
-            <v>7</v>
-          </cell>
-          <cell r="BA27">
-            <v>6</v>
-          </cell>
-          <cell r="BD27">
-            <v>4</v>
-          </cell>
-          <cell r="BG27">
-            <v>7</v>
-          </cell>
-          <cell r="BJ27">
-            <v>3.5</v>
-          </cell>
-          <cell r="BM27">
-            <v>6</v>
-          </cell>
-          <cell r="BN27" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>28</v>
-          </cell>
-          <cell r="B28">
-            <v>43836.90902777778</v>
-          </cell>
-          <cell r="C28">
-            <v>43836.919444444444</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E28">
-            <v>1</v>
-          </cell>
-          <cell r="F28">
-            <v>1</v>
-          </cell>
-          <cell r="G28">
-            <v>5</v>
-          </cell>
-          <cell r="H28">
-            <v>5</v>
-          </cell>
-          <cell r="I28">
-            <v>1</v>
-          </cell>
-          <cell r="J28">
-            <v>1</v>
-          </cell>
-          <cell r="K28">
-            <v>1</v>
-          </cell>
-          <cell r="L28">
-            <v>1</v>
-          </cell>
-          <cell r="M28">
-            <v>1</v>
-          </cell>
-          <cell r="O28" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="P28" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="Q28" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="R28" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="S28" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="T28" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="U28" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V28" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="W28" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="X28" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="Y28" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z28" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="AA28" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AB28">
-            <v>15</v>
-          </cell>
-          <cell r="AC28">
-            <v>0.8</v>
-          </cell>
-          <cell r="AD28" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE28">
-            <v>0.7</v>
-          </cell>
-          <cell r="AF28" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG28">
-            <v>2</v>
-          </cell>
-          <cell r="AH28">
-            <v>100</v>
-          </cell>
-          <cell r="AI28">
-            <v>20</v>
-          </cell>
-          <cell r="AJ28">
-            <v>10</v>
-          </cell>
-          <cell r="AK28" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL28">
-            <v>1</v>
-          </cell>
-          <cell r="AM28">
-            <v>15</v>
-          </cell>
-          <cell r="AN28">
-            <v>0.8</v>
-          </cell>
-          <cell r="AO28" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP28" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ28" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="AR28">
-            <v>2</v>
-          </cell>
-          <cell r="AS28">
-            <v>3</v>
-          </cell>
-          <cell r="AT28">
-            <v>30</v>
-          </cell>
-          <cell r="AU28" t="str">
-            <v>Tel aviv</v>
-          </cell>
-          <cell r="AV28" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW28" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX28" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY28">
-            <v>5</v>
-          </cell>
-          <cell r="BA28">
-            <v>4</v>
-          </cell>
-          <cell r="BD28">
-            <v>6.5</v>
-          </cell>
-          <cell r="BG28">
-            <v>4</v>
-          </cell>
-          <cell r="BJ28">
-            <v>7</v>
-          </cell>
-          <cell r="BM28">
-            <v>6</v>
-          </cell>
-          <cell r="BN28" t="str">
-            <v>N</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>29</v>
-          </cell>
-          <cell r="B29">
-            <v>43836.975694444445</v>
-          </cell>
-          <cell r="C29">
-            <v>43836.987500000003</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E29">
-            <v>1</v>
-          </cell>
-          <cell r="F29">
-            <v>1</v>
-          </cell>
-          <cell r="G29">
-            <v>3</v>
-          </cell>
-          <cell r="H29">
-            <v>2</v>
-          </cell>
-          <cell r="I29">
-            <v>2</v>
-          </cell>
-          <cell r="J29">
-            <v>1</v>
-          </cell>
-          <cell r="K29">
-            <v>1</v>
-          </cell>
-          <cell r="L29">
-            <v>1</v>
-          </cell>
-          <cell r="M29">
-            <v>1</v>
-          </cell>
-          <cell r="N29">
-            <v>1</v>
-          </cell>
-          <cell r="O29" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="P29" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="Q29" t="str">
-            <v>Literature</v>
-          </cell>
-          <cell r="R29" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="S29" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="T29" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="U29" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="V29" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="W29" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X29" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="Y29" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z29" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AA29" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AB29">
-            <v>14</v>
-          </cell>
-          <cell r="AC29">
-            <v>0.4</v>
-          </cell>
-          <cell r="AD29" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE29">
-            <v>0.6</v>
-          </cell>
-          <cell r="AF29" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG29">
-            <v>1</v>
-          </cell>
-          <cell r="AH29">
-            <v>100</v>
-          </cell>
-          <cell r="AI29">
-            <v>30</v>
-          </cell>
-          <cell r="AJ29">
-            <v>10</v>
-          </cell>
-          <cell r="AK29" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL29">
-            <v>0.8</v>
-          </cell>
-          <cell r="AM29">
-            <v>16</v>
-          </cell>
-          <cell r="AN29">
-            <v>0.4</v>
-          </cell>
-          <cell r="AO29" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP29" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ29" t="str">
-            <v>AB</v>
-          </cell>
-          <cell r="AR29">
-            <v>5</v>
-          </cell>
-          <cell r="AS29">
-            <v>6</v>
-          </cell>
-          <cell r="AT29">
-            <v>40</v>
-          </cell>
-          <cell r="AU29" t="str">
-            <v>Givatayim</v>
-          </cell>
-          <cell r="AV29" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW29" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX29" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY29">
-            <v>2</v>
-          </cell>
-          <cell r="BA29">
-            <v>2.5</v>
-          </cell>
-          <cell r="BD29">
-            <v>6.5</v>
-          </cell>
-          <cell r="BG29">
-            <v>6</v>
-          </cell>
-          <cell r="BJ29">
-            <v>6.5</v>
-          </cell>
-          <cell r="BM29">
-            <v>5.5</v>
-          </cell>
-          <cell r="BN29" t="str">
-            <v>A</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>30</v>
-          </cell>
-          <cell r="B30">
-            <v>43836.986805555556</v>
-          </cell>
-          <cell r="C30">
-            <v>43836.993750000001</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E30">
-            <v>1</v>
-          </cell>
-          <cell r="F30">
-            <v>2</v>
-          </cell>
-          <cell r="G30">
-            <v>5</v>
-          </cell>
-          <cell r="H30">
-            <v>5</v>
-          </cell>
-          <cell r="I30">
-            <v>1</v>
-          </cell>
-          <cell r="J30">
-            <v>1</v>
-          </cell>
-          <cell r="K30">
-            <v>1</v>
-          </cell>
-          <cell r="L30">
-            <v>1</v>
-          </cell>
-          <cell r="M30">
-            <v>1</v>
-          </cell>
-          <cell r="N30">
-            <v>1</v>
-          </cell>
-          <cell r="O30" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="P30" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="Q30" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="R30" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="S30" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="T30" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="U30" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V30" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="W30" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X30" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="Y30" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z30" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AA30" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="AB30">
-            <v>9</v>
-          </cell>
-          <cell r="AC30">
-            <v>0.7</v>
-          </cell>
-          <cell r="AD30" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE30">
-            <v>0.7</v>
-          </cell>
-          <cell r="AF30" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG30">
-            <v>2</v>
-          </cell>
-          <cell r="AH30">
-            <v>71</v>
-          </cell>
-          <cell r="AI30">
-            <v>19</v>
-          </cell>
-          <cell r="AJ30">
-            <v>8</v>
-          </cell>
-          <cell r="AK30" t="str">
-            <v>I see a whole person</v>
-          </cell>
-          <cell r="AL30">
-            <v>0.5</v>
-          </cell>
-          <cell r="AM30">
-            <v>15</v>
-          </cell>
-          <cell r="AN30">
-            <v>0.7</v>
-          </cell>
-          <cell r="AO30" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP30" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ30" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="AR30">
-            <v>2</v>
-          </cell>
-          <cell r="AS30">
-            <v>2</v>
-          </cell>
-          <cell r="AT30">
-            <v>29</v>
-          </cell>
-          <cell r="AU30" t="str">
-            <v>Ramat gan</v>
-          </cell>
-          <cell r="AV30" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW30" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX30" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY30">
-            <v>5</v>
-          </cell>
-          <cell r="BA30">
-            <v>4</v>
-          </cell>
-          <cell r="BD30">
-            <v>4.5</v>
-          </cell>
-          <cell r="BG30">
-            <v>6.5</v>
-          </cell>
-          <cell r="BJ30">
-            <v>6.5</v>
-          </cell>
-          <cell r="BM30">
-            <v>6.5</v>
-          </cell>
-          <cell r="BN30" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>31</v>
-          </cell>
-          <cell r="B31">
-            <v>43867.336111111108</v>
-          </cell>
-          <cell r="C31">
-            <v>43867.347916666666</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E31">
-            <v>1</v>
-          </cell>
-          <cell r="F31">
-            <v>1</v>
-          </cell>
-          <cell r="G31">
-            <v>4</v>
-          </cell>
-          <cell r="H31">
-            <v>2</v>
-          </cell>
-          <cell r="I31">
-            <v>1</v>
-          </cell>
-          <cell r="J31">
-            <v>1</v>
-          </cell>
-          <cell r="K31">
-            <v>1</v>
-          </cell>
-          <cell r="L31">
-            <v>1</v>
-          </cell>
-          <cell r="M31">
-            <v>1</v>
-          </cell>
-          <cell r="O31" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="P31" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="Q31" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="R31" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="S31" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="T31" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="U31" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="V31" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="W31" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X31" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="Y31" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="Z31" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AA31" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="AB31">
-            <v>12</v>
-          </cell>
-          <cell r="AC31">
-            <v>0.6</v>
-          </cell>
-          <cell r="AD31" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE31">
-            <v>0.8</v>
-          </cell>
-          <cell r="AF31" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG31">
-            <v>1</v>
-          </cell>
-          <cell r="AH31">
-            <v>90</v>
-          </cell>
-          <cell r="AI31">
-            <v>25</v>
-          </cell>
-          <cell r="AJ31">
-            <v>10</v>
-          </cell>
-          <cell r="AK31" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL31">
-            <v>1</v>
-          </cell>
-          <cell r="AM31">
-            <v>20</v>
-          </cell>
-          <cell r="AN31">
-            <v>0.7</v>
-          </cell>
-          <cell r="AO31" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP31" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ31" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="AR31">
-            <v>2</v>
-          </cell>
-          <cell r="AS31">
-            <v>4</v>
-          </cell>
-          <cell r="AT31">
-            <v>28</v>
-          </cell>
-          <cell r="AU31" t="str">
-            <v>Lod</v>
-          </cell>
-          <cell r="AV31" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW31" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX31" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY31">
-            <v>5</v>
-          </cell>
-          <cell r="BA31">
-            <v>5</v>
-          </cell>
-          <cell r="BD31">
-            <v>7</v>
-          </cell>
-          <cell r="BG31">
-            <v>6.5</v>
-          </cell>
-          <cell r="BJ31">
-            <v>5.5</v>
-          </cell>
-          <cell r="BM31">
-            <v>6.5</v>
-          </cell>
-          <cell r="BN31" t="str">
-            <v>A</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>32</v>
-          </cell>
-          <cell r="B32">
-            <v>43867.463194444441</v>
-          </cell>
-          <cell r="C32">
-            <v>43867.469444444447</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E32">
-            <v>1</v>
-          </cell>
-          <cell r="F32">
-            <v>1</v>
-          </cell>
-          <cell r="G32">
-            <v>5</v>
-          </cell>
-          <cell r="H32">
-            <v>5</v>
-          </cell>
-          <cell r="I32">
-            <v>1</v>
-          </cell>
-          <cell r="J32">
-            <v>1</v>
-          </cell>
-          <cell r="K32">
-            <v>1</v>
-          </cell>
-          <cell r="L32">
-            <v>1</v>
-          </cell>
-          <cell r="M32">
-            <v>1</v>
-          </cell>
-          <cell r="N32">
-            <v>1</v>
-          </cell>
-          <cell r="O32" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="P32" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="Q32" t="str">
-            <v>Love</v>
-          </cell>
-          <cell r="R32" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="S32" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="T32" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U32" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="V32" t="str">
-            <v>Agree strongly</v>
-          </cell>
-          <cell r="W32" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X32" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y32" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="Z32" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="AA32" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="AB32">
-            <v>12</v>
-          </cell>
-          <cell r="AC32">
-            <v>0.3</v>
-          </cell>
-          <cell r="AD32" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE32">
-            <v>0.5</v>
-          </cell>
-          <cell r="AF32" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG32">
-            <v>2</v>
-          </cell>
-          <cell r="AH32">
-            <v>0</v>
-          </cell>
-          <cell r="AI32">
-            <v>25</v>
-          </cell>
-          <cell r="AJ32">
-            <v>8</v>
-          </cell>
-          <cell r="AK32" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL32">
-            <v>1</v>
-          </cell>
-          <cell r="AM32">
-            <v>12</v>
-          </cell>
-          <cell r="AN32">
-            <v>0.3</v>
-          </cell>
-          <cell r="AO32" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP32" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ32" t="str">
-            <v>I don't know</v>
-          </cell>
-          <cell r="AR32">
-            <v>3</v>
-          </cell>
-          <cell r="AS32">
-            <v>6</v>
-          </cell>
-          <cell r="AT32">
-            <v>27</v>
-          </cell>
-          <cell r="AU32" t="str">
-            <v>Tel Aviv</v>
-          </cell>
-          <cell r="AV32" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW32" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX32" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY32">
-            <v>4</v>
-          </cell>
-          <cell r="BA32">
-            <v>3</v>
-          </cell>
-          <cell r="BD32">
-            <v>4</v>
-          </cell>
-          <cell r="BG32">
-            <v>6.5</v>
-          </cell>
-          <cell r="BJ32">
-            <v>5.5</v>
-          </cell>
-          <cell r="BM32">
-            <v>6.5</v>
-          </cell>
-          <cell r="BN32" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>33</v>
-          </cell>
-          <cell r="B33">
-            <v>43867.554166666669</v>
-          </cell>
-          <cell r="C33">
-            <v>43867.55972222222</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E33">
-            <v>1</v>
-          </cell>
-          <cell r="F33">
-            <v>1</v>
-          </cell>
-          <cell r="G33">
-            <v>5</v>
-          </cell>
-          <cell r="H33">
-            <v>3</v>
-          </cell>
-          <cell r="I33">
-            <v>1</v>
-          </cell>
-          <cell r="J33">
-            <v>1</v>
-          </cell>
-          <cell r="K33">
-            <v>1</v>
-          </cell>
-          <cell r="L33">
-            <v>1</v>
-          </cell>
-          <cell r="M33">
-            <v>1</v>
-          </cell>
-          <cell r="N33">
-            <v>3</v>
-          </cell>
-          <cell r="O33" t="str">
-            <v>Movies</v>
-          </cell>
-          <cell r="P33" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="Q33" t="str">
-            <v>Books</v>
-          </cell>
-          <cell r="R33" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="S33" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="T33" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="U33" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="V33" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="W33" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="X33" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="Y33" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z33" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AA33" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="AB33">
-            <v>12</v>
-          </cell>
-          <cell r="AC33">
-            <v>0.9</v>
-          </cell>
-          <cell r="AD33" t="str">
-            <v>Plain gray tiles</v>
-          </cell>
-          <cell r="AE33">
-            <v>0.7</v>
-          </cell>
-          <cell r="AF33" t="str">
-            <v>In to the screen (away from you)</v>
-          </cell>
-          <cell r="AG33">
-            <v>2</v>
-          </cell>
-          <cell r="AH33">
-            <v>53</v>
-          </cell>
-          <cell r="AI33">
-            <v>21</v>
-          </cell>
-          <cell r="AJ33">
-            <v>10</v>
-          </cell>
-          <cell r="AK33" t="str">
-            <v>I see a whole person</v>
-          </cell>
-          <cell r="AL33">
-            <v>0.6</v>
-          </cell>
-          <cell r="AM33">
-            <v>17</v>
-          </cell>
-          <cell r="AN33">
-            <v>0.8</v>
-          </cell>
-          <cell r="AO33" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP33" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="AQ33" t="str">
-            <v>O</v>
-          </cell>
-          <cell r="AR33">
-            <v>1</v>
-          </cell>
-          <cell r="AS33">
-            <v>4</v>
-          </cell>
-          <cell r="AT33">
-            <v>25</v>
-          </cell>
-          <cell r="AU33" t="str">
-            <v>Ramat Gan</v>
-          </cell>
-          <cell r="AV33" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW33" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX33" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY33">
-            <v>3</v>
-          </cell>
-          <cell r="BA33">
-            <v>2.5</v>
-          </cell>
-          <cell r="BD33">
-            <v>6</v>
-          </cell>
-          <cell r="BG33">
-            <v>6</v>
-          </cell>
-          <cell r="BJ33">
-            <v>6</v>
-          </cell>
-          <cell r="BM33">
-            <v>5.5</v>
-          </cell>
-          <cell r="BN33" t="str">
-            <v>A</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>34</v>
-          </cell>
-          <cell r="B34">
-            <v>43867.613888888889</v>
-          </cell>
-          <cell r="C34">
-            <v>43867.62222222222</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="E34">
-            <v>1</v>
-          </cell>
-          <cell r="F34">
-            <v>1</v>
-          </cell>
-          <cell r="G34">
-            <v>3</v>
-          </cell>
-          <cell r="H34">
-            <v>1</v>
-          </cell>
-          <cell r="I34">
-            <v>2</v>
-          </cell>
-          <cell r="J34">
-            <v>1</v>
-          </cell>
-          <cell r="K34">
-            <v>1</v>
-          </cell>
-          <cell r="L34">
-            <v>1</v>
-          </cell>
-          <cell r="M34">
-            <v>1</v>
-          </cell>
-          <cell r="N34">
-            <v>1</v>
-          </cell>
-          <cell r="O34" t="str">
-            <v>Life</v>
-          </cell>
-          <cell r="P34" t="str">
-            <v>Movies</v>
-          </cell>
-          <cell r="Q34" t="str">
-            <v>Laughing</v>
-          </cell>
-          <cell r="R34" t="str">
-            <v>Disagree a little</v>
-          </cell>
-          <cell r="S34" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="T34" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="U34" t="str">
-            <v>Neither agree nor disagree</v>
-          </cell>
-          <cell r="V34" t="str">
-            <v>Agree a little</v>
-          </cell>
-          <cell r="W34" t="str">
-            <v>Disagree strongly</v>
-          </cell>
-          <cell r="X34" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Y34" t="str">
-            <v>Agree moderately</v>
-          </cell>
-          <cell r="Z34" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AA34" t="str">
-            <v>Disagree Moderately</v>
-          </cell>
-          <cell r="AB34">
-            <v>9</v>
-          </cell>
-          <cell r="AC34">
-            <v>0.7</v>
-          </cell>
-          <cell r="AD34" t="str">
-            <v>Tiles with design</v>
-          </cell>
-          <cell r="AE34">
-            <v>0.5</v>
-          </cell>
-          <cell r="AF34" t="str">
-            <v>Out from the screen (towards you)</v>
-          </cell>
-          <cell r="AG34">
-            <v>1</v>
-          </cell>
-          <cell r="AH34">
-            <v>100</v>
-          </cell>
-          <cell r="AI34">
-            <v>32</v>
-          </cell>
-          <cell r="AJ34">
-            <v>8</v>
-          </cell>
-          <cell r="AK34" t="str">
-            <v>I see a part of a person</v>
-          </cell>
-          <cell r="AL34">
-            <v>0.9</v>
-          </cell>
-          <cell r="AM34">
-            <v>11</v>
-          </cell>
-          <cell r="AN34">
-            <v>0.5</v>
-          </cell>
-          <cell r="AO34" t="str">
-            <v>It describes me</v>
-          </cell>
-          <cell r="AP34" t="str">
-            <v>Anxiety</v>
-          </cell>
-          <cell r="AQ34" t="str">
-            <v>I don't know</v>
-          </cell>
-          <cell r="AR34">
-            <v>3</v>
-          </cell>
-          <cell r="AS34">
-            <v>6</v>
-          </cell>
-          <cell r="AT34">
-            <v>38</v>
-          </cell>
-          <cell r="AU34" t="str">
-            <v>Ramat Gan</v>
-          </cell>
-          <cell r="AV34" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="AW34" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="AX34" t="str">
-            <v>Smartphone</v>
-          </cell>
-          <cell r="AY34">
-            <v>4</v>
-          </cell>
-          <cell r="BA34">
-            <v>5</v>
-          </cell>
-          <cell r="BD34">
-            <v>4</v>
-          </cell>
-          <cell r="BG34">
-            <v>5</v>
-          </cell>
-          <cell r="BJ34">
-            <v>5.5</v>
-          </cell>
-          <cell r="BM34">
-            <v>3.5</v>
-          </cell>
-          <cell r="BN34" t="str">
-            <v>N</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16878,8 +11145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD257224-CDF5-4C9A-A32A-640D8A15A227}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2:AN34"/>
+    <sheetView view="pageBreakPreview" topLeftCell="J1" zoomScale="60" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16916,78 +11183,66 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!O$2:O$34,$A2)</f>
         <v>7</v>
       </c>
       <c r="C2">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!P$2:P$34,$A2)</f>
         <v>7</v>
       </c>
       <c r="D2">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!Q$2:Q$34,$A2)</f>
         <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
       <c r="G2">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AD$2:AD$34,F2)</f>
         <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AF$2:AF$34,I2)</f>
         <v>7</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
       </c>
       <c r="M2">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AK$2:AK$34,L2)</f>
         <v>20</v>
       </c>
       <c r="O2" t="s">
         <v>4</v>
       </c>
       <c r="P2">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AO$2:AO$34,O2)</f>
         <v>32</v>
       </c>
       <c r="R2" t="s">
         <v>5</v>
       </c>
       <c r="S2">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AP$2:AP$34,R2)</f>
         <v>3</v>
       </c>
       <c r="U2" t="s">
         <v>6</v>
       </c>
       <c r="V2">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AQ$2:AQ$34,U2)</f>
         <v>5</v>
       </c>
       <c r="X2" t="s">
         <v>7</v>
       </c>
       <c r="Y2">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AW$2:AW$34,X2)</f>
         <v>15</v>
       </c>
       <c r="AA2" t="s">
         <v>8</v>
       </c>
       <c r="AB2">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AX$2:AX$34,AA2)</f>
         <v>30</v>
       </c>
       <c r="AE2">
         <v>27</v>
       </c>
       <c r="AF2">
-        <f>IF(AE2&lt;30,1,IF(AE2&lt;40,2,IF(AE2&lt;60,3,0)))</f>
         <v>1</v>
       </c>
       <c r="AG2">
@@ -16997,7 +11252,6 @@
         <v>37</v>
       </c>
       <c r="AJ2">
-        <f>COUNTIF($AF$2:$AF$34,AG2)</f>
         <v>22</v>
       </c>
       <c r="AL2" t="s">
@@ -17007,7 +11261,6 @@
         <v>44</v>
       </c>
       <c r="AN2" s="2">
-        <f>RIGHT(TRIM(AM2),5)-RIGHT(TRIM(AL2),5)</f>
         <v>4.8611111111110938E-3</v>
       </c>
     </row>
@@ -17016,78 +11269,66 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$O$2:$O$34,A3)</f>
         <v>6</v>
       </c>
       <c r="C3">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!P$2:P$34,$A3)</f>
         <v>6</v>
       </c>
       <c r="D3">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!Q$2:Q$34,$A3)</f>
         <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AD$2:AD$34,F3)</f>
         <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AF$2:AF$34,I3)</f>
         <v>26</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
       </c>
       <c r="M3">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AK$2:AK$34,L3)</f>
         <v>5</v>
       </c>
       <c r="O3" t="s">
         <v>13</v>
       </c>
       <c r="P3">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AO$2:AO$34,O3)</f>
         <v>1</v>
       </c>
       <c r="R3" t="s">
         <v>14</v>
       </c>
       <c r="S3">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AP$2:AP$34,R3)</f>
         <v>1</v>
       </c>
       <c r="U3" t="s">
         <v>15</v>
       </c>
       <c r="V3">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AQ$2:AQ$34,U3)</f>
         <v>10</v>
       </c>
       <c r="X3" t="s">
         <v>16</v>
       </c>
       <c r="Y3">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AW$2:AW$34,X3)</f>
         <v>18</v>
       </c>
       <c r="AA3" t="s">
         <v>17</v>
       </c>
       <c r="AB3">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AX$2:AX$34,AA3)</f>
         <v>3</v>
       </c>
       <c r="AE3">
         <v>26</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF34" si="0">IF(AE3&lt;30,1,IF(AE3&lt;40,2,IF(AE3&lt;60,3,0)))</f>
         <v>1</v>
       </c>
       <c r="AG3">
@@ -17097,7 +11338,6 @@
         <v>38</v>
       </c>
       <c r="AJ3">
-        <f>COUNTIF($AF$2:$AF$34,AG3)</f>
         <v>6</v>
       </c>
       <c r="AL3" t="s">
@@ -17107,7 +11347,6 @@
         <v>45</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" ref="AN3:AN25" si="1">RIGHT(TRIM(AM3),5)-RIGHT(TRIM(AL3),5)</f>
         <v>6.2499999999998668E-3</v>
       </c>
     </row>
@@ -17116,43 +11355,36 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$O$2:$O$34,A4)</f>
         <v>5</v>
       </c>
       <c r="C4">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!P$2:P$34,$A4)</f>
         <v>2</v>
       </c>
       <c r="D4">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!Q$2:Q$34,$A4)</f>
         <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
       <c r="M4">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AK$2:AK$34,L4)</f>
         <v>3</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
       </c>
       <c r="S4">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AP$2:AP$34,R4)</f>
         <v>28</v>
       </c>
       <c r="U4" t="s">
         <v>21</v>
       </c>
       <c r="V4">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AQ$2:AQ$34,U4)</f>
         <v>11</v>
       </c>
       <c r="AE4">
         <v>30</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AG4">
@@ -17162,7 +11394,6 @@
         <v>39</v>
       </c>
       <c r="AJ4">
-        <f>COUNTIF($AF$2:$AF$34,AG4)</f>
         <v>5</v>
       </c>
       <c r="AL4" t="s">
@@ -17172,7 +11403,6 @@
         <v>46</v>
       </c>
       <c r="AN4" s="2">
-        <f t="shared" si="1"/>
         <v>9.0277777777777457E-3</v>
       </c>
     </row>
@@ -17181,43 +11411,36 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$O$2:$O$34,A5)</f>
         <v>4</v>
       </c>
       <c r="C5">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!P$2:P$34,$A5)</f>
         <v>5</v>
       </c>
       <c r="D5">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!Q$2:Q$34,$A5)</f>
         <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
       </c>
       <c r="M5">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AK$2:AK$34,L5)</f>
         <v>5</v>
       </c>
       <c r="R5" t="s">
         <v>24</v>
       </c>
       <c r="S5">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AP$2:AP$34,R5)</f>
         <v>1</v>
       </c>
       <c r="U5" t="s">
         <v>25</v>
       </c>
       <c r="V5">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AQ$2:AQ$34,U5)</f>
         <v>6</v>
       </c>
       <c r="AE5">
         <v>52</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AL5" t="s">
@@ -17227,7 +11450,6 @@
         <v>48</v>
       </c>
       <c r="AN5" s="2">
-        <f t="shared" si="1"/>
         <v>6.9444444444445308E-3</v>
       </c>
     </row>
@@ -17236,29 +11458,24 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$O$2:$O$34,A6)</f>
         <v>3</v>
       </c>
       <c r="C6">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!P$2:P$34,$A6)</f>
         <v>1</v>
       </c>
       <c r="D6">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!Q$2:Q$34,$A6)</f>
         <v>3</v>
       </c>
       <c r="U6" t="s">
         <v>6</v>
       </c>
       <c r="V6">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AQ$2:AQ$34,U6)</f>
         <v>5</v>
       </c>
       <c r="AE6">
         <v>29</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL6" t="s">
@@ -17268,7 +11485,6 @@
         <v>50</v>
       </c>
       <c r="AN6" s="2">
-        <f t="shared" si="1"/>
         <v>5.5555555555555358E-3</v>
       </c>
     </row>
@@ -17277,29 +11493,24 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$O$2:$O$34,A7)</f>
         <v>2</v>
       </c>
       <c r="C7">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!P$2:P$34,$A7)</f>
         <v>1</v>
       </c>
       <c r="D7">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!Q$2:Q$34,$A7)</f>
         <v>2</v>
       </c>
       <c r="U7" t="s">
         <v>28</v>
       </c>
       <c r="V7">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!AQ$2:AQ$34,U7)</f>
         <v>1</v>
       </c>
       <c r="AE7">
         <v>34</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AL7" t="s">
@@ -17309,7 +11520,6 @@
         <v>51</v>
       </c>
       <c r="AN7" s="2">
-        <f t="shared" si="1"/>
         <v>1.1111111111111294E-2</v>
       </c>
     </row>
@@ -17318,22 +11528,18 @@
         <v>29</v>
       </c>
       <c r="B8">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$O$2:$O$34,A8)</f>
         <v>3</v>
       </c>
       <c r="C8">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!P$2:P$34,$A8)</f>
         <v>9</v>
       </c>
       <c r="D8">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!Q$2:Q$34,$A8)</f>
         <v>8</v>
       </c>
       <c r="AE8">
         <v>25</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL8" t="s">
@@ -17343,7 +11549,6 @@
         <v>52</v>
       </c>
       <c r="AN8" s="2">
-        <f t="shared" si="1"/>
         <v>4.1666666666665408E-3</v>
       </c>
     </row>
@@ -17352,22 +11557,18 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$O$2:$O$34,A9)</f>
         <v>1</v>
       </c>
       <c r="C9">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!P$2:P$34,$A9)</f>
         <v>1</v>
       </c>
       <c r="D9">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!Q$2:Q$34,$A9)</f>
         <v>2</v>
       </c>
       <c r="AE9">
         <v>41</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AL9" t="s">
@@ -17377,7 +11578,6 @@
         <v>53</v>
       </c>
       <c r="AN9" s="2">
-        <f t="shared" si="1"/>
         <v>6.2500000000000888E-3</v>
       </c>
     </row>
@@ -17386,22 +11586,18 @@
         <v>31</v>
       </c>
       <c r="B10">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$O$2:$O$34,A10)</f>
         <v>1</v>
       </c>
       <c r="C10">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!P$2:P$34,$A10)</f>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!Q$2:Q$34,$A10)</f>
         <v>1</v>
       </c>
       <c r="AE10">
         <v>28</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL10" t="s">
@@ -17411,7 +11607,6 @@
         <v>55</v>
       </c>
       <c r="AN10" s="2">
-        <f t="shared" si="1"/>
         <v>9.7222222222221877E-3</v>
       </c>
     </row>
@@ -17420,22 +11615,18 @@
         <v>32</v>
       </c>
       <c r="B11">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$O$2:$O$34,A11)</f>
         <v>1</v>
       </c>
       <c r="C11">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!P$2:P$34,$A11)</f>
         <v>1</v>
       </c>
       <c r="D11">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!Q$2:Q$34,$A11)</f>
         <v>0</v>
       </c>
       <c r="AE11">
         <v>41</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AL11" t="s">
@@ -17445,7 +11636,6 @@
         <v>57</v>
       </c>
       <c r="AN11" s="2">
-        <f t="shared" si="1"/>
         <v>6.9444444444443088E-3</v>
       </c>
     </row>
@@ -17454,7 +11644,6 @@
         <v>28</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL12" t="s">
@@ -17464,7 +11653,6 @@
         <v>59</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" si="1"/>
         <v>6.2500000000000888E-3</v>
       </c>
     </row>
@@ -17473,7 +11661,6 @@
         <v>32</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AL13" t="s">
@@ -17483,7 +11670,6 @@
         <v>61</v>
       </c>
       <c r="AN13" s="2">
-        <f t="shared" si="1"/>
         <v>5.5555555555555358E-3</v>
       </c>
     </row>
@@ -17492,7 +11678,6 @@
         <v>28</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL14" t="s">
@@ -17502,7 +11687,6 @@
         <v>63</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" si="1"/>
         <v>5.5555555555555358E-3</v>
       </c>
     </row>
@@ -17511,7 +11695,6 @@
         <v>29</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL15" t="s">
@@ -17521,7 +11704,6 @@
         <v>63</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" si="1"/>
         <v>1.2499999999999956E-2</v>
       </c>
     </row>
@@ -17530,7 +11712,6 @@
         <v>46</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AL16" t="s">
@@ -17540,7 +11721,6 @@
         <v>66</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="1"/>
         <v>6.9444444444445308E-3</v>
       </c>
     </row>
@@ -17549,7 +11729,6 @@
         <v>23</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL17" t="s">
@@ -17559,7 +11738,6 @@
         <v>68</v>
       </c>
       <c r="AN17" s="2">
-        <f t="shared" si="1"/>
         <v>7.6388888888888618E-3</v>
       </c>
     </row>
@@ -17568,7 +11746,6 @@
         <v>30</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AL18" t="s">
@@ -17578,7 +11755,6 @@
         <v>70</v>
       </c>
       <c r="AN18" s="2">
-        <f t="shared" si="1"/>
         <v>7.6388888888888618E-3</v>
       </c>
     </row>
@@ -17587,7 +11763,6 @@
         <v>26</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL19" t="s">
@@ -17597,7 +11772,6 @@
         <v>70</v>
       </c>
       <c r="AN19" s="2">
-        <f t="shared" si="1"/>
         <v>9.7222222222220767E-3</v>
       </c>
     </row>
@@ -17606,7 +11780,6 @@
         <v>26</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL20" t="s">
@@ -17616,7 +11789,6 @@
         <v>72</v>
       </c>
       <c r="AN20" s="2">
-        <f t="shared" si="1"/>
         <v>1.4583333333333282E-2</v>
       </c>
     </row>
@@ -17625,7 +11797,6 @@
         <v>26</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL21" t="s">
@@ -17635,7 +11806,6 @@
         <v>74</v>
       </c>
       <c r="AN21" s="2">
-        <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
     </row>
@@ -17644,7 +11814,6 @@
         <v>22</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL22" t="s">
@@ -17654,7 +11823,6 @@
         <v>76</v>
       </c>
       <c r="AN22" s="2">
-        <f t="shared" si="1"/>
         <v>6.2499999999998668E-3</v>
       </c>
     </row>
@@ -17663,7 +11831,6 @@
         <v>24</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL23" t="s">
@@ -17673,7 +11840,6 @@
         <v>78</v>
       </c>
       <c r="AN23" s="2">
-        <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
     </row>
@@ -17682,7 +11848,6 @@
         <v>28</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL24" t="s">
@@ -17692,7 +11857,6 @@
         <v>80</v>
       </c>
       <c r="AN24" s="2">
-        <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
     </row>
@@ -17701,7 +11865,6 @@
         <v>28</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL25" t="s">
@@ -17711,7 +11874,6 @@
         <v>82</v>
       </c>
       <c r="AN25" s="2">
-        <f t="shared" si="1"/>
         <v>5.5555555555555358E-3</v>
       </c>
     </row>
@@ -17720,7 +11882,6 @@
         <v>28</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL26" s="1">
@@ -17730,7 +11891,6 @@
         <v>43836.098611111112</v>
       </c>
       <c r="AN26" s="2">
-        <f t="shared" ref="AN26:AN34" si="2">AM26-AL26</f>
         <v>8.333333331393078E-3</v>
       </c>
     </row>
@@ -17739,7 +11899,6 @@
         <v>28</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL27" s="1">
@@ -17749,7 +11908,6 @@
         <v>43836.908333333333</v>
       </c>
       <c r="AN27" s="2">
-        <f t="shared" si="2"/>
         <v>5.5555555518367328E-3</v>
       </c>
     </row>
@@ -17758,7 +11916,6 @@
         <v>30</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AL28" s="1">
@@ -17768,7 +11925,6 @@
         <v>43836.919444444444</v>
       </c>
       <c r="AN28" s="2">
-        <f t="shared" si="2"/>
         <v>1.0416666664241347E-2</v>
       </c>
     </row>
@@ -17777,7 +11933,6 @@
         <v>40</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AL29" s="1">
@@ -17787,7 +11942,6 @@
         <v>43836.987500000003</v>
       </c>
       <c r="AN29" s="2">
-        <f t="shared" si="2"/>
         <v>1.1805555557657499E-2</v>
       </c>
     </row>
@@ -17796,7 +11950,6 @@
         <v>29</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL30" s="1">
@@ -17806,7 +11959,6 @@
         <v>43836.993750000001</v>
       </c>
       <c r="AN30" s="2">
-        <f t="shared" si="2"/>
         <v>6.9444444452528842E-3</v>
       </c>
     </row>
@@ -17815,7 +11967,6 @@
         <v>28</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL31" s="1">
@@ -17825,7 +11976,6 @@
         <v>43867.347916666666</v>
       </c>
       <c r="AN31" s="2">
-        <f t="shared" si="2"/>
         <v>1.1805555557657499E-2</v>
       </c>
     </row>
@@ -17834,7 +11984,6 @@
         <v>27</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL32" s="1">
@@ -17844,7 +11993,6 @@
         <v>43867.469444444447</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" si="2"/>
         <v>6.2500000058207661E-3</v>
       </c>
     </row>
@@ -17853,7 +12001,6 @@
         <v>25</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL33" s="1">
@@ -17863,7 +12010,6 @@
         <v>43867.55972222222</v>
       </c>
       <c r="AN33" s="2">
-        <f t="shared" si="2"/>
         <v>5.5555555518367328E-3</v>
       </c>
     </row>
@@ -17872,7 +12018,6 @@
         <v>38</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AL34" s="1">
@@ -17882,7 +12027,6 @@
         <v>43867.62222222222</v>
       </c>
       <c r="AN34" s="2">
-        <f t="shared" si="2"/>
         <v>8.333333331393078E-3</v>
       </c>
     </row>
@@ -17896,201 +12040,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6628C9E-455F-4333-95DB-CC6D743A1918}">
   <dimension ref="A2:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M8" zoomScale="112" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="3" t="s">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="4" t="s">
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="5"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="7"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="10"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="10"/>
     </row>
     <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="11"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="13"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="V8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="W8" s="13" t="s">
+      <c r="W8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="X8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="13" t="s">
+      <c r="Y8" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="U9" s="12">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$BN:$BN,U8)</f>
+      <c r="U9" s="3">
         <v>3</v>
       </c>
-      <c r="V9" s="12">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$BN:$BN,V8)</f>
+      <c r="V9" s="3">
         <v>14</v>
       </c>
-      <c r="W9" s="12">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$BN:$BN,W8)</f>
+      <c r="W9" s="3">
         <v>3</v>
       </c>
-      <c r="X9" s="12">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$BN:$BN,X8)</f>
+      <c r="X9" s="3">
         <v>8</v>
       </c>
-      <c r="Y9" s="12">
-        <f>COUNTIF('[1]SoGoSurvey_LifeJournal Blog_2'!$BN:$BN,Y8)</f>
+      <c r="Y9" s="3">
         <v>5</v>
       </c>
     </row>

--- a/Results/General_Statistics.xlsx
+++ b/Results/General_Statistics.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samoi\OneDrive\Desktop\Academic\PhD_Thesis\Perceptual Decisions\Exploring Brain Heterogeneity\EBH\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samoi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055E113-3F51-45BB-A6EC-EA5979B23BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C66F1D6-DD4C-40AB-8581-49A31809770B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{2D753E0C-FF93-4ACC-9C5D-0F5CCC088732}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{2D753E0C-FF93-4ACC-9C5D-0F5CCC088732}"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
     <sheet name="Figs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1655,11 +1655,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Figs!$U$8</c:f>
+              <c:f>גיליון1!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>O</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1734,12 +1734,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Figs!$U$9</c:f>
+              <c:f>גיליון1!$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,11 +1755,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Figs!$V$8</c:f>
+              <c:f>גיליון1!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C</c:v>
+                  <c:v>A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1834,12 +1834,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Figs!$V$9</c:f>
+              <c:f>גיליון1!$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1855,11 +1855,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Figs!$W$8</c:f>
+              <c:f>גיליון1!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E</c:v>
+                  <c:v>N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1934,12 +1934,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Figs!$W$9</c:f>
+              <c:f>גיליון1!$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1955,11 +1955,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Figs!$X$8</c:f>
+              <c:f>גיליון1!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>E</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2034,12 +2034,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Figs!$X$9</c:f>
+              <c:f>גיליון1!$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2055,11 +2055,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Figs!$Y$8</c:f>
+              <c:f>גיליון1!$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N</c:v>
+                  <c:v>O</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2134,12 +2134,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Figs!$Y$9</c:f>
+              <c:f>גיליון1!$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,20 +2189,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2250,6 +2236,325 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" u="sng"/>
+              <a:t>Disorders</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>גיליון1!$R$3:$R$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Depression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anxiety</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון1!$S$3:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B30B-4547-A65F-477C9E8BD2B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="581466472"/>
+        <c:axId val="581460896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="581466472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="581460896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="581460896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="581466472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2552,20 +2857,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2891,20 +3182,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3135,10 +3412,10 @@
                   <c:v>I don't see anyone</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>I see a whole person</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>I see a face</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>I see a whole person</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3156,10 +3433,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3240,20 +3517,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3460,16 +3723,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>B</c:v>
+                  <c:v>A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>I don't know</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>A</c:v>
+                  <c:v>O</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>O</c:v>
+                  <c:v>B</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>B</c:v>
@@ -3487,16 +3750,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -3583,20 +3846,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4220,20 +4469,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4753,103 +4988,103 @@
                 <c:formatCode>[$-1000000]h:mm;@</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>4.8611111111110938E-3</c:v>
+                  <c:v>1.4583333333333282E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2499999999998668E-3</c:v>
+                  <c:v>1.2499999999999956E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.1805555557657499E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1805555557657499E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1111111111111294E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666664241347E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7222222222221877E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7222222222220767E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9.0277777777777457E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9444444444445308E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5555555555555358E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1111111111111294E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1666666666665408E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.2500000000000888E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.7222222222221877E-3</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9444444444443088E-3</c:v>
+                  <c:v>8.333333331393078E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2500000000000888E-3</c:v>
+                  <c:v>8.333333331393078E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5555555555555358E-3</c:v>
+                  <c:v>7.6388888888888618E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5555555555555358E-3</c:v>
+                  <c:v>7.6388888888888618E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2499999999999956E-2</c:v>
+                  <c:v>6.9444444452528842E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6.9444444444445308E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.6388888888888618E-3</c:v>
+                  <c:v>6.9444444444445308E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6388888888888618E-3</c:v>
+                  <c:v>6.9444444444444198E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.7222222222220767E-3</c:v>
+                  <c:v>6.9444444444444198E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4583333333333282E-2</c:v>
+                  <c:v>6.9444444444443088E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>6.2500000058207661E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2500000000000888E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.2500000000000888E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2499999999998668E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2499999999998668E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5555555555555358E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5555555555555358E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.5555555555555358E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5555555555555358E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5555555518367328E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5555555518367328E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8611111111110938E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1666666666665408E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>2.0833333333333259E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.2499999999998668E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.9444444444444198E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.9444444444444198E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.5555555555555358E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.333333331393078E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.5555555518367328E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0416666664241347E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.1805555557657499E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.9444444452528842E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.1805555557657499E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.2500000058207661E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.5555555518367328E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.333333331393078E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4931,20 +5166,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="[$-1000000]h:mm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5046,6 +5267,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6424,6 +6685,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -10468,15 +11232,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>182458</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>131928</xdr:rowOff>
+      <xdr:colOff>301521</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>409079</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>74778</xdr:rowOff>
+      <xdr:colOff>528142</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3341</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10544,15 +11308,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>248516</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>177078</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>321253</xdr:colOff>
+      <xdr:colOff>249815</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10772,15 +11536,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>136814</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>22514</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10810,15 +11574,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>61649</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127571</xdr:rowOff>
+      <xdr:colOff>228337</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>384129</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>182213</xdr:rowOff>
+      <xdr:colOff>550817</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10838,6 +11602,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="תרשים 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72311AC-3B6C-4CB4-874E-96B64A217DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11145,8 +11947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD257224-CDF5-4C9A-A32A-640D8A15A227}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="J1" zoomScale="60" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11215,17 +12017,11 @@
       <c r="P2">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
       <c r="U2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="X2" t="s">
         <v>7</v>
@@ -11243,6 +12039,7 @@
         <v>27</v>
       </c>
       <c r="AF2">
+        <f>IF(AE2&lt;30,1,IF(AE2&lt;40,2,IF(AE2&lt;60,3,0)))</f>
         <v>1</v>
       </c>
       <c r="AG2">
@@ -11252,16 +12049,18 @@
         <v>37</v>
       </c>
       <c r="AJ2">
+        <f>COUNTIF($AF$2:$AF$34,AG2)</f>
         <v>22</v>
       </c>
       <c r="AL2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="AM2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AN2" s="2">
-        <v>4.8611111111110938E-3</v>
+        <f>RIGHT(TRIM(AM2),5)-RIGHT(TRIM(AL2),5)</f>
+        <v>1.4583333333333282E-2</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -11329,6 +12128,7 @@
         <v>26</v>
       </c>
       <c r="AF3">
+        <f t="shared" ref="AF3:AF34" si="0">IF(AE3&lt;30,1,IF(AE3&lt;40,2,IF(AE3&lt;60,3,0)))</f>
         <v>1</v>
       </c>
       <c r="AG3">
@@ -11338,16 +12138,18 @@
         <v>38</v>
       </c>
       <c r="AJ3">
+        <f>COUNTIF($AF$2:$AF$34,AG3)</f>
         <v>6</v>
       </c>
       <c r="AL3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="AM3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AN3" s="2">
-        <v>6.2499999999998668E-3</v>
+        <f>RIGHT(TRIM(AM3),5)-RIGHT(TRIM(AL3),5)</f>
+        <v>1.2499999999999956E-2</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -11364,27 +12166,28 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S4">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE4">
         <v>30</v>
       </c>
       <c r="AF4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AG4">
@@ -11394,16 +12197,18 @@
         <v>39</v>
       </c>
       <c r="AJ4">
+        <f>COUNTIF($AF$2:$AF$34,AG4)</f>
         <v>5</v>
       </c>
-      <c r="AL4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>46</v>
+      <c r="AL4" s="1">
+        <v>43867.336111111108</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>43867.347916666666</v>
       </c>
       <c r="AN4" s="2">
-        <v>9.0277777777777457E-3</v>
+        <f>AM4-AL4</f>
+        <v>1.1805555557657499E-2</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -11420,37 +12225,39 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
         <v>5</v>
       </c>
-      <c r="R5" t="s">
-        <v>24</v>
-      </c>
       <c r="S5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE5">
         <v>52</v>
       </c>
       <c r="AF5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AL5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>48</v>
+      <c r="AL5" s="1">
+        <v>43836.975694444445</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>43836.987500000003</v>
       </c>
       <c r="AN5" s="2">
-        <v>6.9444444444445308E-3</v>
+        <f>AM5-AL5</f>
+        <v>1.1805555557657499E-2</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -11466,6 +12273,12 @@
       <c r="D6">
         <v>3</v>
       </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <v>28</v>
+      </c>
       <c r="U6" t="s">
         <v>6</v>
       </c>
@@ -11476,16 +12289,18 @@
         <v>29</v>
       </c>
       <c r="AF6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AM6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN6" s="2">
-        <v>5.5555555555555358E-3</v>
+        <f>RIGHT(TRIM(AM6),5)-RIGHT(TRIM(AL6),5)</f>
+        <v>1.1111111111111294E-2</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -11511,16 +12326,18 @@
         <v>34</v>
       </c>
       <c r="AF7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AL7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>51</v>
+      <c r="AL7" s="1">
+        <v>43836.90902777778</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>43836.919444444444</v>
       </c>
       <c r="AN7" s="2">
-        <v>1.1111111111111294E-2</v>
+        <f>AM7-AL7</f>
+        <v>1.0416666664241347E-2</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -11540,16 +12357,18 @@
         <v>25</v>
       </c>
       <c r="AF8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AM8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AN8" s="2">
-        <v>4.1666666666665408E-3</v>
+        <f>RIGHT(TRIM(AM8),5)-RIGHT(TRIM(AL8),5)</f>
+        <v>9.7222222222221877E-3</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -11569,16 +12388,18 @@
         <v>41</v>
       </c>
       <c r="AF9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AL9" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="AM9" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="AN9" s="2">
-        <v>6.2500000000000888E-3</v>
+        <f>RIGHT(TRIM(AM9),5)-RIGHT(TRIM(AL9),5)</f>
+        <v>9.7222222222220767E-3</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -11598,16 +12419,18 @@
         <v>28</v>
       </c>
       <c r="AF10">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AN10" s="2">
-        <v>9.7222222222221877E-3</v>
+        <f>RIGHT(TRIM(AM10),5)-RIGHT(TRIM(AL10),5)</f>
+        <v>9.0277777777777457E-3</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -11627,16 +12450,18 @@
         <v>41</v>
       </c>
       <c r="AF11">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AL11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>57</v>
+      <c r="AL11" s="1">
+        <v>43867.613888888889</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>43867.62222222222</v>
       </c>
       <c r="AN11" s="2">
-        <v>6.9444444444443088E-3</v>
+        <f>AM11-AL11</f>
+        <v>8.333333331393078E-3</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -11644,50 +12469,86 @@
         <v>28</v>
       </c>
       <c r="AF12">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>59</v>
+      <c r="AL12" s="1">
+        <v>43836.090277777781</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>43836.098611111112</v>
       </c>
       <c r="AN12" s="2">
-        <v>6.2500000000000888E-3</v>
+        <f>AM12-AL12</f>
+        <v>8.333333331393078E-3</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="AE13">
         <v>32</v>
       </c>
       <c r="AF13">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AL13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AM13" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AN13" s="2">
-        <v>5.5555555555555358E-3</v>
+        <f>RIGHT(TRIM(AM13),5)-RIGHT(TRIM(AL13),5)</f>
+        <v>7.6388888888888618E-3</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
       <c r="AE14">
         <v>28</v>
       </c>
       <c r="AF14">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AM14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AN14" s="2">
-        <v>5.5555555555555358E-3</v>
+        <f>RIGHT(TRIM(AM14),5)-RIGHT(TRIM(AL14),5)</f>
+        <v>7.6388888888888618E-3</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -11695,16 +12556,18 @@
         <v>29</v>
       </c>
       <c r="AF15">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>63</v>
+      <c r="AL15" s="1">
+        <v>43836.986805555556</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>43836.993750000001</v>
       </c>
       <c r="AN15" s="2">
-        <v>1.2499999999999956E-2</v>
+        <f>AM15-AL15</f>
+        <v>6.9444444452528842E-3</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -11712,6 +12575,7 @@
         <v>46</v>
       </c>
       <c r="AF16">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AL16" t="s">
@@ -11721,6 +12585,7 @@
         <v>66</v>
       </c>
       <c r="AN16" s="2">
+        <f>RIGHT(TRIM(AM16),5)-RIGHT(TRIM(AL16),5)</f>
         <v>6.9444444444445308E-3</v>
       </c>
     </row>
@@ -11729,16 +12594,18 @@
         <v>23</v>
       </c>
       <c r="AF17">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL17" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AM17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="AN17" s="2">
-        <v>7.6388888888888618E-3</v>
+        <f>RIGHT(TRIM(AM17),5)-RIGHT(TRIM(AL17),5)</f>
+        <v>6.9444444444445308E-3</v>
       </c>
     </row>
     <row r="18" spans="31:40" x14ac:dyDescent="0.25">
@@ -11746,16 +12613,18 @@
         <v>30</v>
       </c>
       <c r="AF18">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AL18" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN18" s="2">
-        <v>7.6388888888888618E-3</v>
+        <f>RIGHT(TRIM(AM18),5)-RIGHT(TRIM(AL18),5)</f>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="19" spans="31:40" x14ac:dyDescent="0.25">
@@ -11763,16 +12632,18 @@
         <v>26</v>
       </c>
       <c r="AF19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AN19" s="2">
-        <v>9.7222222222220767E-3</v>
+        <f>RIGHT(TRIM(AM19),5)-RIGHT(TRIM(AL19),5)</f>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="20" spans="31:40" x14ac:dyDescent="0.25">
@@ -11780,16 +12651,18 @@
         <v>26</v>
       </c>
       <c r="AF20">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL20" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AM20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AN20" s="2">
-        <v>1.4583333333333282E-2</v>
+        <f>RIGHT(TRIM(AM20),5)-RIGHT(TRIM(AL20),5)</f>
+        <v>6.9444444444443088E-3</v>
       </c>
     </row>
     <row r="21" spans="31:40" x14ac:dyDescent="0.25">
@@ -11797,16 +12670,18 @@
         <v>26</v>
       </c>
       <c r="AF21">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>74</v>
+      <c r="AL21" s="1">
+        <v>43867.463194444441</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>43867.469444444447</v>
       </c>
       <c r="AN21" s="2">
-        <v>2.0833333333333259E-3</v>
+        <f>AM21-AL21</f>
+        <v>6.2500000058207661E-3</v>
       </c>
     </row>
     <row r="22" spans="31:40" x14ac:dyDescent="0.25">
@@ -11814,16 +12689,18 @@
         <v>22</v>
       </c>
       <c r="AF22">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL22" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AM22" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AN22" s="2">
-        <v>6.2499999999998668E-3</v>
+        <f>RIGHT(TRIM(AM22),5)-RIGHT(TRIM(AL22),5)</f>
+        <v>6.2500000000000888E-3</v>
       </c>
     </row>
     <row r="23" spans="31:40" x14ac:dyDescent="0.25">
@@ -11831,16 +12708,18 @@
         <v>24</v>
       </c>
       <c r="AF23">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL23" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="AM23" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AN23" s="2">
-        <v>6.9444444444444198E-3</v>
+        <f>RIGHT(TRIM(AM23),5)-RIGHT(TRIM(AL23),5)</f>
+        <v>6.2500000000000888E-3</v>
       </c>
     </row>
     <row r="24" spans="31:40" x14ac:dyDescent="0.25">
@@ -11848,16 +12727,18 @@
         <v>28</v>
       </c>
       <c r="AF24">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AM24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AN24" s="2">
-        <v>6.9444444444444198E-3</v>
+        <f>RIGHT(TRIM(AM24),5)-RIGHT(TRIM(AL24),5)</f>
+        <v>6.2499999999998668E-3</v>
       </c>
     </row>
     <row r="25" spans="31:40" x14ac:dyDescent="0.25">
@@ -11865,16 +12746,18 @@
         <v>28</v>
       </c>
       <c r="AF25">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL25" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AM25" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AN25" s="2">
-        <v>5.5555555555555358E-3</v>
+        <f>RIGHT(TRIM(AM25),5)-RIGHT(TRIM(AL25),5)</f>
+        <v>6.2499999999998668E-3</v>
       </c>
     </row>
     <row r="26" spans="31:40" x14ac:dyDescent="0.25">
@@ -11882,16 +12765,18 @@
         <v>28</v>
       </c>
       <c r="AF26">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL26" s="1">
-        <v>43836.090277777781</v>
-      </c>
-      <c r="AM26" s="1">
-        <v>43836.098611111112</v>
+      <c r="AL26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>82</v>
       </c>
       <c r="AN26" s="2">
-        <v>8.333333331393078E-3</v>
+        <f>RIGHT(TRIM(AM26),5)-RIGHT(TRIM(AL26),5)</f>
+        <v>5.5555555555555358E-3</v>
       </c>
     </row>
     <row r="27" spans="31:40" x14ac:dyDescent="0.25">
@@ -11899,16 +12784,18 @@
         <v>28</v>
       </c>
       <c r="AF27">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL27" s="1">
-        <v>43836.902777777781</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>43836.908333333333</v>
+      <c r="AL27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>63</v>
       </c>
       <c r="AN27" s="2">
-        <v>5.5555555518367328E-3</v>
+        <f>RIGHT(TRIM(AM27),5)-RIGHT(TRIM(AL27),5)</f>
+        <v>5.5555555555555358E-3</v>
       </c>
     </row>
     <row r="28" spans="31:40" x14ac:dyDescent="0.25">
@@ -11916,16 +12803,18 @@
         <v>30</v>
       </c>
       <c r="AF28">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AL28" s="1">
-        <v>43836.90902777778</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>43836.919444444444</v>
+      <c r="AL28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>61</v>
       </c>
       <c r="AN28" s="2">
-        <v>1.0416666664241347E-2</v>
+        <f>RIGHT(TRIM(AM28),5)-RIGHT(TRIM(AL28),5)</f>
+        <v>5.5555555555555358E-3</v>
       </c>
     </row>
     <row r="29" spans="31:40" x14ac:dyDescent="0.25">
@@ -11933,16 +12822,18 @@
         <v>40</v>
       </c>
       <c r="AF29">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AL29" s="1">
-        <v>43836.975694444445</v>
-      </c>
-      <c r="AM29" s="1">
-        <v>43836.987500000003</v>
+      <c r="AL29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>50</v>
       </c>
       <c r="AN29" s="2">
-        <v>1.1805555557657499E-2</v>
+        <f>RIGHT(TRIM(AM29),5)-RIGHT(TRIM(AL29),5)</f>
+        <v>5.5555555555555358E-3</v>
       </c>
     </row>
     <row r="30" spans="31:40" x14ac:dyDescent="0.25">
@@ -11950,16 +12841,18 @@
         <v>29</v>
       </c>
       <c r="AF30">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL30" s="1">
-        <v>43836.986805555556</v>
+        <v>43867.554166666669</v>
       </c>
       <c r="AM30" s="1">
-        <v>43836.993750000001</v>
+        <v>43867.55972222222</v>
       </c>
       <c r="AN30" s="2">
-        <v>6.9444444452528842E-3</v>
+        <f>AM30-AL30</f>
+        <v>5.5555555518367328E-3</v>
       </c>
     </row>
     <row r="31" spans="31:40" x14ac:dyDescent="0.25">
@@ -11967,16 +12860,18 @@
         <v>28</v>
       </c>
       <c r="AF31">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL31" s="1">
-        <v>43867.336111111108</v>
+        <v>43836.902777777781</v>
       </c>
       <c r="AM31" s="1">
-        <v>43867.347916666666</v>
+        <v>43836.908333333333</v>
       </c>
       <c r="AN31" s="2">
-        <v>1.1805555557657499E-2</v>
+        <f>AM31-AL31</f>
+        <v>5.5555555518367328E-3</v>
       </c>
     </row>
     <row r="32" spans="31:40" x14ac:dyDescent="0.25">
@@ -11984,16 +12879,18 @@
         <v>27</v>
       </c>
       <c r="AF32">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL32" s="1">
-        <v>43867.463194444441</v>
-      </c>
-      <c r="AM32" s="1">
-        <v>43867.469444444447</v>
+      <c r="AL32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>44</v>
       </c>
       <c r="AN32" s="2">
-        <v>6.2500000058207661E-3</v>
+        <f>RIGHT(TRIM(AM32),5)-RIGHT(TRIM(AL32),5)</f>
+        <v>4.8611111111110938E-3</v>
       </c>
     </row>
     <row r="33" spans="31:40" x14ac:dyDescent="0.25">
@@ -12001,16 +12898,18 @@
         <v>25</v>
       </c>
       <c r="AF33">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL33" s="1">
-        <v>43867.554166666669</v>
-      </c>
-      <c r="AM33" s="1">
-        <v>43867.55972222222</v>
+      <c r="AL33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>52</v>
       </c>
       <c r="AN33" s="2">
-        <v>5.5555555518367328E-3</v>
+        <f>RIGHT(TRIM(AM33),5)-RIGHT(TRIM(AL33),5)</f>
+        <v>4.1666666666665408E-3</v>
       </c>
     </row>
     <row r="34" spans="31:40" x14ac:dyDescent="0.25">
@@ -12018,19 +12917,24 @@
         <v>38</v>
       </c>
       <c r="AF34">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AL34" s="1">
-        <v>43867.613888888889</v>
-      </c>
-      <c r="AM34" s="1">
-        <v>43867.62222222222</v>
+      <c r="AL34" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>74</v>
       </c>
       <c r="AN34" s="2">
-        <v>8.333333331393078E-3</v>
+        <f>RIGHT(TRIM(AM34),5)-RIGHT(TRIM(AL34),5)</f>
+        <v>2.0833333333333259E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:M5">
+    <sortCondition descending="1" ref="M2:M5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12038,10 +12942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6628C9E-455F-4333-95DB-CC6D743A1918}">
-  <dimension ref="A2:AH9"/>
+  <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12199,40 +13103,6 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="13"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="U8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="U9" s="3">
-        <v>3</v>
-      </c>
-      <c r="V9" s="3">
-        <v>14</v>
-      </c>
-      <c r="W9" s="3">
-        <v>3</v>
-      </c>
-      <c r="X9" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:M6"/>
